--- a/QQQ.xlsx
+++ b/QQQ.xlsx
@@ -576,16 +576,16 @@
         <v>45560</v>
       </c>
       <c r="B4" t="n">
-        <v>483.212158203125</v>
+        <v>483.2120971679688</v>
       </c>
       <c r="C4" t="n">
-        <v>485.1715845897857</v>
+        <v>485.1715233071317</v>
       </c>
       <c r="D4" t="n">
-        <v>481.9589120851685</v>
+        <v>481.9588512083114</v>
       </c>
       <c r="E4" t="n">
-        <v>482.1379385723732</v>
+        <v>482.137877672903</v>
       </c>
       <c r="F4" t="n">
         <v>26549900</v>
@@ -600,10 +600,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0009272260315105196</v>
+        <v>0.0009270996030905643</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0009272260315105196</v>
+        <v>0.0009270996030905643</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
@@ -614,16 +614,16 @@
         <v>45561</v>
       </c>
       <c r="B5" t="n">
-        <v>486.8425598144531</v>
+        <v>486.842529296875</v>
       </c>
       <c r="C5" t="n">
-        <v>491.0498643918356</v>
+        <v>491.0498336105238</v>
       </c>
       <c r="D5" t="n">
-        <v>483.192246767166</v>
+        <v>483.1922164784065</v>
       </c>
       <c r="E5" t="n">
-        <v>490.7216188111026</v>
+        <v>490.7215880503668</v>
       </c>
       <c r="F5" t="n">
         <v>32020200</v>
@@ -638,10 +638,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.007513059325386484</v>
+        <v>0.007513123430029189</v>
       </c>
       <c r="K5" t="n">
-        <v>0.008447251661079846</v>
+        <v>0.008447188446869758</v>
       </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
@@ -652,16 +652,16 @@
         <v>45562</v>
       </c>
       <c r="B6" t="n">
-        <v>484.1371765136719</v>
+        <v>484.1371154785156</v>
       </c>
       <c r="C6" t="n">
-        <v>488.0063099671723</v>
+        <v>488.0062484442346</v>
       </c>
       <c r="D6" t="n">
-        <v>482.9535618818757</v>
+        <v>482.9535009959377</v>
       </c>
       <c r="E6" t="n">
-        <v>487.8670469028373</v>
+        <v>487.8669853974565</v>
       </c>
       <c r="F6" t="n">
         <v>22851100</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.005556998348320907</v>
+        <v>-0.00555706138136014</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002843311949230376</v>
+        <v>0.002843185520810421</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
@@ -690,16 +690,16 @@
         <v>45565</v>
       </c>
       <c r="B7" t="n">
-        <v>485.4500427246094</v>
+        <v>485.4500732421875</v>
       </c>
       <c r="C7" t="n">
-        <v>485.7882139588143</v>
+        <v>485.7882444976514</v>
       </c>
       <c r="D7" t="n">
-        <v>480.3276940460128</v>
+        <v>480.327724241577</v>
       </c>
       <c r="E7" t="n">
-        <v>483.1723269680795</v>
+        <v>483.1723573424701</v>
       </c>
       <c r="F7" t="n">
         <v>30281100</v>
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.002711764918347237</v>
+        <v>0.002711954365188785</v>
       </c>
       <c r="K7" t="n">
-        <v>0.00556278726117343</v>
+        <v>0.005562850475383518</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
@@ -752,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>-0.01393240946394991</v>
+        <v>-0.01393247145260001</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.008447125232660002</v>
+        <v>-0.008447125232659891</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
@@ -766,16 +766,16 @@
         <v>45567</v>
       </c>
       <c r="B9" t="n">
-        <v>479.3628845214844</v>
+        <v>479.3629150390625</v>
       </c>
       <c r="C9" t="n">
-        <v>481.2825169164109</v>
+        <v>481.2825475561982</v>
       </c>
       <c r="D9" t="n">
-        <v>475.1555804098439</v>
+        <v>475.1556106595733</v>
       </c>
       <c r="E9" t="n">
-        <v>477.7813929962249</v>
+        <v>477.7814234131209</v>
       </c>
       <c r="F9" t="n">
         <v>23744000</v>
@@ -790,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00141288816411933</v>
+        <v>0.001412951916856642</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.007046171911802679</v>
+        <v>-0.007046108697592701</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
@@ -804,16 +804,16 @@
         <v>45568</v>
       </c>
       <c r="B10" t="n">
-        <v>479.0048522949219</v>
+        <v>479.0048217773438</v>
       </c>
       <c r="C10" t="n">
-        <v>481.9489547067567</v>
+        <v>481.9489240016088</v>
       </c>
       <c r="D10" t="n">
-        <v>476.4188028564975</v>
+        <v>476.4187725036775</v>
       </c>
       <c r="E10" t="n">
-        <v>477.1647769048644</v>
+        <v>477.1647465045182</v>
       </c>
       <c r="F10" t="n">
         <v>25337200</v>
@@ -828,10 +828,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.0007468918394044621</v>
+        <v>-0.0007470191174250296</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.007787801022907215</v>
+        <v>-0.007787864237117192</v>
       </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
@@ -842,16 +842,16 @@
         <v>45569</v>
       </c>
       <c r="B11" t="n">
-        <v>484.7041015625</v>
+        <v>484.7040710449219</v>
       </c>
       <c r="C11" t="n">
-        <v>485.2610930864183</v>
+        <v>485.2610625337713</v>
       </c>
       <c r="D11" t="n">
-        <v>479.8005728037589</v>
+        <v>479.8005425949131</v>
       </c>
       <c r="E11" t="n">
-        <v>484.8334085865813</v>
+        <v>484.8333780608618</v>
       </c>
       <c r="F11" t="n">
         <v>30686600</v>
@@ -866,10 +866,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.01189810341225761</v>
+        <v>0.01189810417029014</v>
       </c>
       <c r="K11" t="n">
-        <v>0.004017642327425852</v>
+        <v>0.004017579113215541</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
@@ -880,16 +880,16 @@
         <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>479.5121154785156</v>
+        <v>479.5120849609375</v>
       </c>
       <c r="C12" t="n">
-        <v>483.958121938575</v>
+        <v>483.9580911380398</v>
       </c>
       <c r="D12" t="n">
-        <v>478.2887071345021</v>
+        <v>478.2886766947853</v>
       </c>
       <c r="E12" t="n">
-        <v>482.7844634091214</v>
+        <v>482.7844326832814</v>
       </c>
       <c r="F12" t="n">
         <v>24975100</v>
@@ -904,10 +904,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.01071166112943422</v>
+        <v>-0.01071166180385386</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.006737054425159039</v>
+        <v>-0.00673711763936935</v>
       </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
@@ -918,16 +918,16 @@
         <v>45573</v>
       </c>
       <c r="B13" t="n">
-        <v>486.6734313964844</v>
+        <v>486.6734619140625</v>
       </c>
       <c r="C13" t="n">
-        <v>487.3597299131588</v>
+        <v>487.3597604737723</v>
       </c>
       <c r="D13" t="n">
-        <v>481.252705142601</v>
+        <v>481.2527353202644</v>
       </c>
       <c r="E13" t="n">
-        <v>482.0583546441301</v>
+        <v>482.058384872313</v>
       </c>
       <c r="F13" t="n">
         <v>28272000</v>
@@ -942,10 +942,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.01493458806733661</v>
+        <v>0.01493471630377874</v>
       </c>
       <c r="K13" t="n">
-        <v>0.008096918509550521</v>
+        <v>0.008096981723760166</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
@@ -980,10 +980,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.007868409196156279</v>
+        <v>0.007868345996279169</v>
       </c>
       <c r="K14" t="n">
-        <v>0.01602903757376795</v>
+        <v>0.0160290375737675</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
@@ -1021,7 +1021,7 @@
         <v>-0.001135583450171507</v>
       </c>
       <c r="K15" t="n">
-        <v>0.01487525181380556</v>
+        <v>0.01487525181380511</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
@@ -1032,16 +1032,16 @@
         <v>45576</v>
       </c>
       <c r="B16" t="n">
-        <v>490.7116088867188</v>
+        <v>490.7116394042969</v>
       </c>
       <c r="C16" t="n">
-        <v>491.7361089444399</v>
+        <v>491.7361395257322</v>
       </c>
       <c r="D16" t="n">
-        <v>487.5387608619043</v>
+        <v>487.5387911821617</v>
       </c>
       <c r="E16" t="n">
-        <v>488.1056780098677</v>
+        <v>488.1057083653818</v>
       </c>
       <c r="F16" t="n">
         <v>20644500</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.001563108959252268</v>
+        <v>0.001563171246917516</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01646161241243904</v>
+        <v>0.01646167562664869</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
@@ -1094,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.008391544635519832</v>
+        <v>0.008391481923194943</v>
       </c>
       <c r="K17" t="n">
-        <v>0.02499129540329048</v>
+        <v>0.02499129540329026</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
@@ -1108,16 +1108,16 @@
         <v>45580</v>
       </c>
       <c r="B18" t="n">
-        <v>488.2151489257812</v>
+        <v>488.2151184082031</v>
       </c>
       <c r="C18" t="n">
-        <v>495.8240780548679</v>
+        <v>495.8240470616674</v>
       </c>
       <c r="D18" t="n">
-        <v>486.0567840167079</v>
+        <v>486.0567536340458</v>
       </c>
       <c r="E18" t="n">
-        <v>495.1576612241944</v>
+        <v>495.1576302726505</v>
       </c>
       <c r="F18" t="n">
         <v>34784500</v>
@@ -1132,10 +1132,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>-0.01336680446248006</v>
+        <v>-0.01336686613540372</v>
       </c>
       <c r="K18" t="n">
-        <v>0.01129043718189049</v>
+        <v>0.0112903739676804</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
@@ -1170,10 +1170,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0001222040433723759</v>
+        <v>0.0001222665594771133</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0114140209623379</v>
+        <v>0.01141402096233768</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
@@ -1211,7 +1211,7 @@
         <v>0.0006925716332883969</v>
       </c>
       <c r="K20" t="n">
-        <v>0.01211449762276651</v>
+        <v>0.01211449762276628</v>
       </c>
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
@@ -1222,16 +1222,16 @@
         <v>45583</v>
       </c>
       <c r="B21" t="n">
-        <v>491.815673828125</v>
+        <v>491.8157043457031</v>
       </c>
       <c r="C21" t="n">
-        <v>492.9097750712338</v>
+        <v>492.9098056567018</v>
       </c>
       <c r="D21" t="n">
-        <v>490.6519410618732</v>
+        <v>490.6519715072407</v>
       </c>
       <c r="E21" t="n">
-        <v>491.4078710759773</v>
+        <v>491.4079015682508</v>
       </c>
       <c r="F21" t="n">
         <v>25335000</v>
@@ -1246,10 +1246,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.006554671919764443</v>
+        <v>0.00655473437733245</v>
       </c>
       <c r="K21" t="n">
-        <v>0.01874857609992087</v>
+        <v>0.01874863931413073</v>
       </c>
       <c r="L21" t="n">
         <v>26059110</v>
@@ -1286,16 +1286,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.001921342363303324</v>
+        <v>0.001921280193241115</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0207059408967365</v>
+        <v>0.02070594089673627</v>
       </c>
       <c r="L22" t="n">
         <v>27575935</v>
       </c>
       <c r="M22" t="n">
-        <v>486.3009613037109</v>
+        <v>486.3009552001953</v>
       </c>
       <c r="N22" t="inlineStr"/>
     </row>
@@ -1304,16 +1304,16 @@
         <v>45587</v>
       </c>
       <c r="B23" t="n">
-        <v>493.2977294921875</v>
+        <v>493.2976989746094</v>
       </c>
       <c r="C23" t="n">
-        <v>494.7797519667791</v>
+        <v>494.7797213575166</v>
       </c>
       <c r="D23" t="n">
-        <v>489.3291571129143</v>
+        <v>489.3291268408497</v>
       </c>
       <c r="E23" t="n">
-        <v>490.0850872246855</v>
+        <v>490.0850569058557</v>
       </c>
       <c r="F23" t="n">
         <v>26685800</v>
@@ -1328,16 +1328,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.001090000606932096</v>
+        <v>0.00108993867507956</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0218185109918132</v>
+        <v>0.02181844777760311</v>
       </c>
       <c r="L23" t="n">
         <v>27612595</v>
       </c>
       <c r="M23" t="n">
-        <v>486.8276214599609</v>
+        <v>486.8276138305664</v>
       </c>
       <c r="N23" t="inlineStr"/>
     </row>
@@ -1346,16 +1346,16 @@
         <v>45588</v>
       </c>
       <c r="B24" t="n">
-        <v>485.7384643554688</v>
+        <v>485.7384338378906</v>
       </c>
       <c r="C24" t="n">
-        <v>491.5968613498573</v>
+        <v>491.5968304642126</v>
       </c>
       <c r="D24" t="n">
-        <v>482.4462348949116</v>
+        <v>482.446204584175</v>
       </c>
       <c r="E24" t="n">
-        <v>490.9404005936158</v>
+        <v>490.9403697492147</v>
       </c>
       <c r="F24" t="n">
         <v>39346600</v>
@@ -1370,16 +1370,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.01532394066459708</v>
+        <v>-0.01532394161260386</v>
       </c>
       <c r="K24" t="n">
-        <v>0.006160224759387711</v>
+        <v>0.006160161545177623</v>
       </c>
       <c r="L24" t="n">
         <v>28252430</v>
       </c>
       <c r="M24" t="n">
-        <v>486.9539367675781</v>
+        <v>486.9539306640625</v>
       </c>
       <c r="N24" t="inlineStr"/>
     </row>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.008108852864900484</v>
+        <v>0.008108916201541305</v>
       </c>
       <c r="K25" t="n">
         <v>0.01431902998047674</v>
@@ -1421,7 +1421,7 @@
         <v>27752665</v>
       </c>
       <c r="M25" t="n">
-        <v>487.0956710815429</v>
+        <v>487.0956665039063</v>
       </c>
       <c r="N25" t="inlineStr"/>
     </row>
@@ -1430,16 +1430,16 @@
         <v>45590</v>
       </c>
       <c r="B26" t="n">
-        <v>492.6611328125</v>
+        <v>492.6611633300781</v>
       </c>
       <c r="C26" t="n">
-        <v>497.5944990663683</v>
+        <v>497.5945298895406</v>
       </c>
       <c r="D26" t="n">
-        <v>491.775895756788</v>
+        <v>491.7759262195307</v>
       </c>
       <c r="E26" t="n">
-        <v>492.4821063362077</v>
+        <v>492.4821368426961</v>
       </c>
       <c r="F26" t="n">
         <v>38762100</v>
@@ -1454,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.006093578459185123</v>
+        <v>0.006093640781007048</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0204998625723074</v>
+        <v>0.02049992578651727</v>
       </c>
       <c r="L26" t="n">
         <v>28548215</v>
@@ -1472,16 +1472,16 @@
         <v>45593</v>
       </c>
       <c r="B27" t="n">
-        <v>492.7406921386719</v>
+        <v>492.74072265625</v>
       </c>
       <c r="C27" t="n">
-        <v>495.8439391561385</v>
+        <v>495.8439698659142</v>
       </c>
       <c r="D27" t="n">
-        <v>492.4423146769001</v>
+        <v>492.4423451759984</v>
       </c>
       <c r="E27" t="n">
-        <v>495.7842636637841</v>
+        <v>495.7842943698639</v>
       </c>
       <c r="F27" t="n">
         <v>20477800</v>
@@ -1496,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0001614889441707845</v>
+        <v>0.000161488934167453</v>
       </c>
       <c r="K27" t="n">
-        <v>0.02066466201764072</v>
+        <v>0.02066472523185059</v>
       </c>
       <c r="L27" t="n">
         <v>28058050</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.009608434270336197</v>
+        <v>0.009608371740890354</v>
       </c>
       <c r="K28" t="n">
-        <v>0.0304716513346921</v>
+        <v>0.03047165133469187</v>
       </c>
       <c r="L28" t="n">
         <v>27321985</v>
@@ -1583,13 +1583,13 @@
         <v>-0.007557572522281397</v>
       </c>
       <c r="K29" t="n">
-        <v>0.02268378709757513</v>
+        <v>0.0226837870975749</v>
       </c>
       <c r="L29" t="n">
         <v>27622585</v>
       </c>
       <c r="M29" t="n">
-        <v>489.5434600830078</v>
+        <v>489.5434585571289</v>
       </c>
       <c r="N29" t="inlineStr"/>
     </row>
@@ -1625,7 +1625,7 @@
         <v>-0.0252427545736611</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.003131568746591262</v>
+        <v>-0.003131568746591484</v>
       </c>
       <c r="L30" t="n">
         <v>28417985</v>
@@ -1667,13 +1667,13 @@
         <v>0.007398941095160483</v>
       </c>
       <c r="K31" t="n">
-        <v>0.004244202055877722</v>
+        <v>0.0042442020558775</v>
       </c>
       <c r="L31" t="n">
         <v>28566445</v>
       </c>
       <c r="M31" t="n">
-        <v>489.6613220214844</v>
+        <v>489.6613235473633</v>
       </c>
       <c r="N31" t="inlineStr"/>
     </row>
@@ -1682,16 +1682,16 @@
         <v>45600</v>
       </c>
       <c r="B32" t="n">
-        <v>483.4011535644531</v>
+        <v>483.4010925292969</v>
       </c>
       <c r="C32" t="n">
-        <v>486.7530588635654</v>
+        <v>486.7529974051912</v>
       </c>
       <c r="D32" t="n">
-        <v>481.6505913663656</v>
+        <v>481.6505305522388</v>
       </c>
       <c r="E32" t="n">
-        <v>484.206803132036</v>
+        <v>484.2067419951569</v>
       </c>
       <c r="F32" t="n">
         <v>23291600</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>-0.002913126524577536</v>
+        <v>-0.002913252418677459</v>
       </c>
       <c r="K32" t="n">
-        <v>0.001318711633715441</v>
+        <v>0.001318585205295486</v>
       </c>
       <c r="L32" t="n">
         <v>28482270</v>
@@ -1724,16 +1724,16 @@
         <v>45601</v>
       </c>
       <c r="B33" t="n">
-        <v>489.5678100585938</v>
+        <v>489.5678405761719</v>
       </c>
       <c r="C33" t="n">
-        <v>490.2342268567496</v>
+        <v>490.2342574158692</v>
       </c>
       <c r="D33" t="n">
-        <v>484.902983532783</v>
+        <v>484.9030137595756</v>
       </c>
       <c r="E33" t="n">
-        <v>484.9924967706679</v>
+        <v>484.9925270030404</v>
       </c>
       <c r="F33" t="n">
         <v>24353600</v>
@@ -1748,10 +1748,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.01275680963661263</v>
+        <v>0.01275700064021112</v>
       </c>
       <c r="K33" t="n">
-        <v>0.01409234382360491</v>
+        <v>0.01409240703781478</v>
       </c>
       <c r="L33" t="n">
         <v>28286350</v>
@@ -1766,16 +1766,16 @@
         <v>45602</v>
       </c>
       <c r="B34" t="n">
-        <v>502.8660583496094</v>
+        <v>502.8660278320312</v>
       </c>
       <c r="C34" t="n">
-        <v>503.6916199489961</v>
+        <v>503.6915893813169</v>
       </c>
       <c r="D34" t="n">
-        <v>496.9181781185984</v>
+        <v>496.918147961981</v>
       </c>
       <c r="E34" t="n">
-        <v>497.8730163872913</v>
+        <v>497.8729861727274</v>
       </c>
       <c r="F34" t="n">
         <v>43082200</v>
@@ -1790,16 +1790,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.02716324075601295</v>
+        <v>0.02716311439127361</v>
       </c>
       <c r="K34" t="n">
-        <v>0.041638378307715</v>
+        <v>0.04163831509350491</v>
       </c>
       <c r="L34" t="n">
         <v>29190710</v>
       </c>
       <c r="M34" t="n">
-        <v>490.6186569213867</v>
+        <v>490.6186553955078</v>
       </c>
       <c r="N34" t="inlineStr"/>
     </row>
@@ -1832,16 +1832,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.01574422492166039</v>
+        <v>0.01574428656442795</v>
       </c>
       <c r="K35" t="n">
-        <v>0.05803816722282518</v>
+        <v>0.05803816722282495</v>
       </c>
       <c r="L35" t="n">
         <v>29545845</v>
       </c>
       <c r="M35" t="n">
-        <v>491.6605331420898</v>
+        <v>491.660531616211</v>
       </c>
       <c r="N35" t="inlineStr"/>
     </row>
@@ -1850,16 +1850,16 @@
         <v>45604</v>
       </c>
       <c r="B36" t="n">
-        <v>511.3800964355469</v>
+        <v>511.3801574707031</v>
       </c>
       <c r="C36" t="n">
-        <v>512.1558778054664</v>
+        <v>512.1559389332151</v>
       </c>
       <c r="D36" t="n">
-        <v>509.6593418436095</v>
+        <v>509.6594026733871</v>
       </c>
       <c r="E36" t="n">
-        <v>510.2859648423034</v>
+        <v>510.2860257468708</v>
       </c>
       <c r="F36" t="n">
         <v>22924500</v>
@@ -1874,10 +1874,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.001168405004688067</v>
+        <v>0.001168524497938694</v>
       </c>
       <c r="K36" t="n">
-        <v>0.05927438431255938</v>
+        <v>0.05927451074097889</v>
       </c>
       <c r="L36" t="n">
         <v>29659845</v>
@@ -1916,10 +1916,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-0.0005833416831260152</v>
+        <v>-0.0005834609672847879</v>
       </c>
       <c r="K37" t="n">
-        <v>0.05865646541032232</v>
+        <v>0.05865646541032188</v>
       </c>
       <c r="L37" t="n">
         <v>29565215</v>
@@ -1934,16 +1934,16 @@
         <v>45608</v>
       </c>
       <c r="B38" t="n">
-        <v>510.1566772460938</v>
+        <v>510.1567077636719</v>
       </c>
       <c r="C38" t="n">
-        <v>511.8972832625985</v>
+        <v>511.8973138842997</v>
       </c>
       <c r="D38" t="n">
-        <v>507.0932240126998</v>
+        <v>507.0932543470221</v>
       </c>
       <c r="E38" t="n">
-        <v>511.0121069119199</v>
+        <v>511.0121374806699</v>
       </c>
       <c r="F38" t="n">
         <v>25835300</v>
@@ -1958,16 +1958,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>-0.001810101409626785</v>
+        <v>-0.001810041697895892</v>
       </c>
       <c r="K38" t="n">
-        <v>0.05674018984997264</v>
+        <v>0.05674025306418207</v>
       </c>
       <c r="L38" t="n">
         <v>29117755</v>
       </c>
       <c r="M38" t="n">
-        <v>494.6036514282226</v>
+        <v>494.6036544799805</v>
       </c>
       <c r="N38" t="inlineStr"/>
     </row>
@@ -1976,16 +1976,16 @@
         <v>45609</v>
       </c>
       <c r="B39" t="n">
-        <v>509.5003051757812</v>
+        <v>509.5002746582031</v>
       </c>
       <c r="C39" t="n">
-        <v>512.2156314460634</v>
+        <v>512.2156007658452</v>
       </c>
       <c r="D39" t="n">
-        <v>507.2126634336277</v>
+        <v>507.2126330530726</v>
       </c>
       <c r="E39" t="n">
-        <v>509.6495242772916</v>
+        <v>509.6494937507757</v>
       </c>
       <c r="F39" t="n">
         <v>24567400</v>
@@ -2000,16 +2000,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>-0.001286608799978328</v>
+        <v>-0.001286728363028455</v>
       </c>
       <c r="K39" t="n">
-        <v>0.05538057862242085</v>
+        <v>0.05538051540821054</v>
       </c>
       <c r="L39" t="n">
         <v>29196285</v>
       </c>
       <c r="M39" t="n">
-        <v>495.664926147461</v>
+        <v>495.6649276733398</v>
       </c>
       <c r="N39" t="inlineStr"/>
     </row>
@@ -2042,16 +2042,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-0.006949797745545938</v>
+        <v>-0.006949738264739658</v>
       </c>
       <c r="K40" t="n">
-        <v>0.04804589705641771</v>
+        <v>0.04804589705641749</v>
       </c>
       <c r="L40" t="n">
         <v>29269725</v>
       </c>
       <c r="M40" t="n">
-        <v>496.5322463989258</v>
+        <v>496.5322479248047</v>
       </c>
       <c r="N40" t="inlineStr"/>
     </row>
@@ -2060,16 +2060,16 @@
         <v>45611</v>
       </c>
       <c r="B41" t="n">
-        <v>493.9044189453125</v>
+        <v>493.9044494628906</v>
       </c>
       <c r="C41" t="n">
-        <v>500.6281106168657</v>
+        <v>500.6281415498902</v>
       </c>
       <c r="D41" t="n">
-        <v>491.8355673896348</v>
+        <v>491.8355977793818</v>
       </c>
       <c r="E41" t="n">
-        <v>500.2402199212759</v>
+        <v>500.2402508303333</v>
       </c>
       <c r="F41" t="n">
         <v>51461100</v>
@@ -2084,16 +2084,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>-0.02382594850185571</v>
+        <v>-0.02382588818559461</v>
       </c>
       <c r="K41" t="n">
-        <v>0.0230752094855704</v>
+        <v>0.02307527269978005</v>
       </c>
       <c r="L41" t="n">
         <v>30576030</v>
       </c>
       <c r="M41" t="n">
-        <v>496.6366836547851</v>
+        <v>496.6366851806641</v>
       </c>
       <c r="N41" t="inlineStr"/>
     </row>
@@ -2126,16 +2126,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.006947676322550445</v>
+        <v>0.006947614104839239</v>
       </c>
       <c r="K42" t="n">
-        <v>0.03018320489470172</v>
+        <v>0.03018320489470128</v>
       </c>
       <c r="L42" t="n">
         <v>30413245</v>
       </c>
       <c r="M42" t="n">
-        <v>496.8654479980469</v>
+        <v>496.8654495239258</v>
       </c>
       <c r="N42" t="inlineStr"/>
     </row>
@@ -2144,16 +2144,16 @@
         <v>45615</v>
       </c>
       <c r="B43" t="n">
-        <v>500.7574157714844</v>
+        <v>500.7574462890625</v>
       </c>
       <c r="C43" t="n">
-        <v>501.2448060896569</v>
+        <v>501.244836636938</v>
       </c>
       <c r="D43" t="n">
-        <v>494.4116587859232</v>
+        <v>494.4116889167728</v>
       </c>
       <c r="E43" t="n">
-        <v>494.7498603755775</v>
+        <v>494.7498905270381</v>
       </c>
       <c r="F43" t="n">
         <v>24523000</v>
@@ -2168,16 +2168,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.006879673759778271</v>
+        <v>0.006879735121883224</v>
       </c>
       <c r="K43" t="n">
-        <v>0.03727052925718</v>
+        <v>0.03727059247138964</v>
       </c>
       <c r="L43" t="n">
         <v>30305105</v>
       </c>
       <c r="M43" t="n">
-        <v>497.2384323120117</v>
+        <v>497.2384368896484</v>
       </c>
       <c r="N43" t="inlineStr"/>
     </row>
@@ -2186,16 +2186,16 @@
         <v>45616</v>
       </c>
       <c r="B44" t="n">
-        <v>500.4690246582031</v>
+        <v>500.468994140625</v>
       </c>
       <c r="C44" t="n">
-        <v>500.7773581670681</v>
+        <v>500.7773276306885</v>
       </c>
       <c r="D44" t="n">
-        <v>493.8944909882249</v>
+        <v>493.8944608715484</v>
       </c>
       <c r="E44" t="n">
-        <v>500.4590686244457</v>
+        <v>500.4590381074747</v>
       </c>
       <c r="F44" t="n">
         <v>29565500</v>
@@ -2210,16 +2210,16 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.0005759098202009483</v>
+        <v>-0.0005760316707721369</v>
       </c>
       <c r="K44" t="n">
-        <v>0.0366731549731758</v>
+        <v>0.03667309175896549</v>
       </c>
       <c r="L44" t="n">
         <v>29816050</v>
       </c>
       <c r="M44" t="n">
-        <v>497.9749603271484</v>
+        <v>497.9749649047852</v>
       </c>
       <c r="N44" t="inlineStr"/>
     </row>
@@ -2228,16 +2228,16 @@
         <v>45617</v>
       </c>
       <c r="B45" t="n">
-        <v>502.269287109375</v>
+        <v>502.2693176269531</v>
       </c>
       <c r="C45" t="n">
-        <v>504.2386390775591</v>
+        <v>504.2386697147938</v>
       </c>
       <c r="D45" t="n">
-        <v>494.8891041840927</v>
+        <v>494.8891342532554</v>
       </c>
       <c r="E45" t="n">
-        <v>503.5225028108302</v>
+        <v>503.522533404553</v>
       </c>
       <c r="F45" t="n">
         <v>34526700</v>
@@ -2252,16 +2252,16 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.003597150597684617</v>
+        <v>0.003597272772950744</v>
       </c>
       <c r="K45" t="n">
-        <v>0.0404022244321911</v>
+        <v>0.04040228764640075</v>
       </c>
       <c r="L45" t="n">
         <v>30441140</v>
       </c>
       <c r="M45" t="n">
-        <v>498.6045623779297</v>
+        <v>498.6045684814453</v>
       </c>
       <c r="N45" t="inlineStr"/>
     </row>
@@ -2270,16 +2270,16 @@
         <v>45618</v>
       </c>
       <c r="B46" t="n">
-        <v>503.074951171875</v>
+        <v>503.0749206542969</v>
       </c>
       <c r="C46" t="n">
-        <v>503.8109691728965</v>
+        <v>503.81093861067</v>
       </c>
       <c r="D46" t="n">
-        <v>500.0810989994587</v>
+        <v>500.0810686634939</v>
       </c>
       <c r="E46" t="n">
-        <v>501.7123101251142</v>
+        <v>501.7122796901967</v>
       </c>
       <c r="F46" t="n">
         <v>23826600</v>
@@ -2294,16 +2294,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.001604048033947425</v>
+        <v>0.001603926417703461</v>
       </c>
       <c r="K46" t="n">
-        <v>0.04207107957480605</v>
+        <v>0.04207101636059596</v>
       </c>
       <c r="L46" t="n">
         <v>29694365</v>
       </c>
       <c r="M46" t="n">
-        <v>499.1252532958985</v>
+        <v>499.1252563476563</v>
       </c>
       <c r="N46" t="inlineStr"/>
     </row>
@@ -2336,16 +2336,16 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.001581642680876127</v>
+        <v>0.001581703438915838</v>
       </c>
       <c r="K47" t="n">
-        <v>0.04371926367076817</v>
+        <v>0.04371926367076795</v>
       </c>
       <c r="L47" t="n">
         <v>29989235</v>
       </c>
       <c r="M47" t="n">
-        <v>499.6817504882812</v>
+        <v>499.6817520141602</v>
       </c>
       <c r="N47" t="inlineStr"/>
     </row>
@@ -2381,13 +2381,13 @@
         <v>0.005369202147462726</v>
       </c>
       <c r="K48" t="n">
-        <v>0.04932320338261742</v>
+        <v>0.0493232033826172</v>
       </c>
       <c r="L48" t="n">
         <v>29916385</v>
       </c>
       <c r="M48" t="n">
-        <v>500.1367935180664</v>
+        <v>500.1367950439453</v>
       </c>
       <c r="N48" t="inlineStr"/>
     </row>
@@ -2396,16 +2396,16 @@
         <v>45623</v>
       </c>
       <c r="B49" t="n">
-        <v>502.5875244140625</v>
+        <v>502.5875549316406</v>
       </c>
       <c r="C49" t="n">
-        <v>505.5117448464665</v>
+        <v>505.5117755416059</v>
       </c>
       <c r="D49" t="n">
-        <v>499.2356195176612</v>
+        <v>499.2356498317086</v>
       </c>
       <c r="E49" t="n">
-        <v>505.4421436771303</v>
+        <v>505.4421743680435</v>
       </c>
       <c r="F49" t="n">
         <v>24957400</v>
@@ -2420,16 +2420,16 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>-0.007873437985990273</v>
+        <v>-0.007873377743150223</v>
       </c>
       <c r="K49" t="n">
-        <v>0.04106142221352371</v>
+        <v>0.04106148542773336</v>
       </c>
       <c r="L49" t="n">
         <v>29676455</v>
       </c>
       <c r="M49" t="n">
-        <v>500.5803970336914</v>
+        <v>500.5804000854492</v>
       </c>
       <c r="N49" t="inlineStr"/>
     </row>
@@ -2462,16 +2462,16 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.008786924696583709</v>
+        <v>0.008786863442114656</v>
       </c>
       <c r="K50" t="n">
-        <v>0.05020915053503239</v>
+        <v>0.05020915053503194</v>
       </c>
       <c r="L50" t="n">
         <v>28380895</v>
       </c>
       <c r="M50" t="n">
-        <v>501.8679473876953</v>
+        <v>501.8679504394531</v>
       </c>
       <c r="N50" t="inlineStr"/>
     </row>
@@ -2507,13 +2507,13 @@
         <v>0.01088777330337054</v>
       </c>
       <c r="K51" t="n">
-        <v>0.0616435896871832</v>
+        <v>0.06164358968718275</v>
       </c>
       <c r="L51" t="n">
         <v>27955465</v>
       </c>
       <c r="M51" t="n">
-        <v>503.253466796875</v>
+        <v>503.2534698486328</v>
       </c>
       <c r="N51" t="inlineStr"/>
     </row>
@@ -2522,16 +2522,16 @@
         <v>45629</v>
       </c>
       <c r="B52" t="n">
-        <v>514.095458984375</v>
+        <v>514.0953979492188</v>
       </c>
       <c r="C52" t="n">
-        <v>514.373985095904</v>
+        <v>514.3739240276802</v>
       </c>
       <c r="D52" t="n">
-        <v>510.6142468353947</v>
+        <v>510.6141862135398</v>
       </c>
       <c r="E52" t="n">
-        <v>511.1911504181891</v>
+        <v>511.1910897278422</v>
       </c>
       <c r="F52" t="n">
         <v>18597900</v>
@@ -2546,19 +2546,19 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.003066382555785729</v>
+        <v>0.003066263468343156</v>
       </c>
       <c r="K52" t="n">
-        <v>0.06489899507106167</v>
+        <v>0.06489886864264127</v>
       </c>
       <c r="L52" t="n">
         <v>27720780</v>
       </c>
       <c r="M52" t="n">
-        <v>504.7881820678711</v>
+        <v>504.7881851196289</v>
       </c>
       <c r="N52" t="n">
-        <v>494.3311218261719</v>
+        <v>494.3311193847656</v>
       </c>
     </row>
     <row r="53">
@@ -2590,19 +2590,19 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.01236290416410424</v>
+        <v>0.01236302435527548</v>
       </c>
       <c r="K53" t="n">
-        <v>0.07806423929157602</v>
+        <v>0.07806423929157558</v>
       </c>
       <c r="L53" t="n">
         <v>27807410</v>
       </c>
       <c r="M53" t="n">
-        <v>506.3323501586914</v>
+        <v>506.3323516845703</v>
       </c>
       <c r="N53" t="n">
-        <v>495.0848547363281</v>
+        <v>495.0848522949219</v>
       </c>
     </row>
     <row r="54">
@@ -2610,16 +2610,16 @@
         <v>45631</v>
       </c>
       <c r="B54" t="n">
-        <v>519.0089111328125</v>
+        <v>519.0089721679688</v>
       </c>
       <c r="C54" t="n">
-        <v>521.226921022137</v>
+        <v>521.22698231813</v>
       </c>
       <c r="D54" t="n">
-        <v>518.6209900907503</v>
+        <v>518.6210510802872</v>
       </c>
       <c r="E54" t="n">
-        <v>520.5008591030347</v>
+        <v>520.5009203136432</v>
       </c>
       <c r="F54" t="n">
         <v>18169600</v>
@@ -2634,16 +2634,16 @@
         <v>0</v>
       </c>
       <c r="J54" t="n">
-        <v>-0.002771173973903363</v>
+        <v>-0.002771056700353935</v>
       </c>
       <c r="K54" t="n">
-        <v>0.07507673572945528</v>
+        <v>0.07507686215787479</v>
       </c>
       <c r="L54" t="n">
         <v>26561780</v>
       </c>
       <c r="M54" t="n">
-        <v>507.1394927978516</v>
+        <v>507.1394989013672</v>
       </c>
       <c r="N54" t="n">
         <v>495.8007897949219</v>
@@ -2678,19 +2678,19 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>0.008949670027736945</v>
+        <v>0.008949551375836862</v>
       </c>
       <c r="K55" t="n">
-        <v>0.08469831776873038</v>
+        <v>0.08469831776873016</v>
       </c>
       <c r="L55" t="n">
         <v>26107255</v>
       </c>
       <c r="M55" t="n">
-        <v>507.7830215454102</v>
+        <v>507.7830276489258</v>
       </c>
       <c r="N55" t="n">
-        <v>496.5370159912109</v>
+        <v>496.5370166015625</v>
       </c>
     </row>
     <row r="56">
@@ -2725,16 +2725,16 @@
         <v>-0.007787475909270203</v>
       </c>
       <c r="K56" t="n">
-        <v>0.07625125575028058</v>
+        <v>0.07625125575028036</v>
       </c>
       <c r="L56" t="n">
         <v>25994750</v>
       </c>
       <c r="M56" t="n">
-        <v>508.1928131103516</v>
+        <v>508.1928161621094</v>
       </c>
       <c r="N56" t="n">
-        <v>497.245791015625</v>
+        <v>497.2457928466797</v>
       </c>
     </row>
     <row r="57">
@@ -2769,16 +2769,16 @@
         <v>-0.003407601695906814</v>
       </c>
       <c r="K57" t="n">
-        <v>0.0725838201459641</v>
+        <v>0.07258382014596387</v>
       </c>
       <c r="L57" t="n">
         <v>26003875</v>
       </c>
       <c r="M57" t="n">
-        <v>508.5289947509766</v>
+        <v>508.5289978027344</v>
       </c>
       <c r="N57" t="n">
-        <v>497.8928985595703</v>
+        <v>497.8928997802734</v>
       </c>
     </row>
     <row r="58">
@@ -2813,16 +2813,16 @@
         <v>0.01790251545194077</v>
       </c>
       <c r="K58" t="n">
-        <v>0.09178576855962883</v>
+        <v>0.09178576855962861</v>
       </c>
       <c r="L58" t="n">
         <v>26320540</v>
       </c>
       <c r="M58" t="n">
-        <v>509.3749328613281</v>
+        <v>509.374934387207</v>
       </c>
       <c r="N58" t="n">
-        <v>498.8606762695313</v>
+        <v>498.8606774902344</v>
       </c>
     </row>
     <row r="59">
@@ -2830,16 +2830,16 @@
         <v>45638</v>
       </c>
       <c r="B59" t="n">
-        <v>523.6737670898438</v>
+        <v>523.6737060546875</v>
       </c>
       <c r="C59" t="n">
-        <v>526.1205837537462</v>
+        <v>526.120522433409</v>
       </c>
       <c r="D59" t="n">
-        <v>523.1963631388469</v>
+        <v>523.196302159333</v>
       </c>
       <c r="E59" t="n">
-        <v>524.8474256077255</v>
+        <v>524.8473644357773</v>
       </c>
       <c r="F59" t="n">
         <v>23577500</v>
@@ -2854,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.006453862404992128</v>
+        <v>-0.006453978204651323</v>
       </c>
       <c r="K59" t="n">
-        <v>0.08473953343361651</v>
+        <v>0.08473940700519633</v>
       </c>
       <c r="L59" t="n">
         <v>26271045</v>
@@ -2866,7 +2866,7 @@
         <v>510.0836059570312</v>
       </c>
       <c r="N59" t="n">
-        <v>499.7468939208985</v>
+        <v>499.7468933105469</v>
       </c>
     </row>
     <row r="60">
@@ -2874,16 +2874,16 @@
         <v>45639</v>
       </c>
       <c r="B60" t="n">
-        <v>527.6821899414062</v>
+        <v>527.68212890625</v>
       </c>
       <c r="C60" t="n">
-        <v>530.3079725118033</v>
+        <v>530.307911172932</v>
       </c>
       <c r="D60" t="n">
-        <v>524.469487021193</v>
+        <v>524.4694263576389</v>
       </c>
       <c r="E60" t="n">
-        <v>527.6125584104548</v>
+        <v>527.6124973833525</v>
       </c>
       <c r="F60" t="n">
         <v>28780400</v>
@@ -2898,19 +2898,19 @@
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>0.0076544274383612</v>
+        <v>0.007654428330499119</v>
       </c>
       <c r="K60" t="n">
-        <v>0.09304259348180599</v>
+        <v>0.09304246705338581</v>
       </c>
       <c r="L60" t="n">
         <v>26276090</v>
       </c>
       <c r="M60" t="n">
-        <v>511.1697463989258</v>
+        <v>511.169743347168</v>
       </c>
       <c r="N60" t="n">
-        <v>500.7204406738281</v>
+        <v>500.720439453125</v>
       </c>
     </row>
     <row r="61">
@@ -2918,16 +2918,16 @@
         <v>45642</v>
       </c>
       <c r="B61" t="n">
-        <v>535.2811279296875</v>
+        <v>535.2811889648438</v>
       </c>
       <c r="C61" t="n">
-        <v>536.2559086463527</v>
+        <v>536.2559697926578</v>
       </c>
       <c r="D61" t="n">
-        <v>530.1388970892364</v>
+        <v>530.1389575380524</v>
       </c>
       <c r="E61" t="n">
-        <v>530.2184846535105</v>
+        <v>530.2185451114013</v>
       </c>
       <c r="F61" t="n">
         <v>31979900</v>
@@ -2942,19 +2942,19 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>0.01440059591384935</v>
+        <v>0.01440082891255878</v>
       </c>
       <c r="K61" t="n">
-        <v>0.1087830581871634</v>
+        <v>0.1087831846155829</v>
       </c>
       <c r="L61" t="n">
         <v>25302030</v>
       </c>
       <c r="M61" t="n">
-        <v>513.2385818481446</v>
+        <v>513.2385803222656</v>
       </c>
       <c r="N61" t="n">
-        <v>501.7319812011719</v>
+        <v>501.7319818115234</v>
       </c>
     </row>
     <row r="62">
@@ -2962,16 +2962,16 @@
         <v>45643</v>
       </c>
       <c r="B62" t="n">
-        <v>532.923828125</v>
+        <v>532.9237670898438</v>
       </c>
       <c r="C62" t="n">
-        <v>534.5948026460842</v>
+        <v>534.5947414195532</v>
       </c>
       <c r="D62" t="n">
-        <v>531.2628096373928</v>
+        <v>531.2627487924711</v>
       </c>
       <c r="E62" t="n">
-        <v>533.4808196320281</v>
+        <v>533.4807585330802</v>
       </c>
       <c r="F62" t="n">
         <v>28579100</v>
@@ -2986,16 +2986,16 @@
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>-0.004403853754016751</v>
+        <v>-0.004404081300818596</v>
       </c>
       <c r="K62" t="n">
-        <v>0.1039001397539756</v>
+        <v>0.1039000133255552</v>
       </c>
       <c r="L62" t="n">
         <v>25376945</v>
       </c>
       <c r="M62" t="n">
-        <v>515.0179779052735</v>
+        <v>515.0179733276367</v>
       </c>
       <c r="N62" t="n">
         <v>502.8002154541016</v>
@@ -3030,19 +3030,19 @@
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>-0.03607693315546234</v>
+        <v>-0.03607682275844382</v>
       </c>
       <c r="K63" t="n">
-        <v>0.06407480820176592</v>
+        <v>0.06407480820176548</v>
       </c>
       <c r="L63" t="n">
         <v>26885955</v>
       </c>
       <c r="M63" t="n">
-        <v>515.6649856567383</v>
+        <v>515.6649795532227</v>
       </c>
       <c r="N63" t="n">
-        <v>503.3406982421875</v>
+        <v>503.340697631836</v>
       </c>
     </row>
     <row r="64">
@@ -3050,16 +3050,16 @@
         <v>45645</v>
       </c>
       <c r="B64" t="n">
-        <v>511.4099731445312</v>
+        <v>511.4099426269531</v>
       </c>
       <c r="C64" t="n">
-        <v>518.9592575433442</v>
+        <v>518.9592265752744</v>
       </c>
       <c r="D64" t="n">
-        <v>511.0718322245731</v>
+        <v>511.0718017271731</v>
       </c>
       <c r="E64" t="n">
-        <v>518.3923099577986</v>
+        <v>518.3922790235606</v>
       </c>
       <c r="F64" t="n">
         <v>46441800</v>
@@ -3074,19 +3074,19 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>-0.00445319928744059</v>
+        <v>-0.004453258695115148</v>
       </c>
       <c r="K64" t="n">
-        <v>0.05933627102409833</v>
+        <v>0.05933620780988802</v>
       </c>
       <c r="L64" t="n">
         <v>27729770</v>
       </c>
       <c r="M64" t="n">
-        <v>516.2120330810546</v>
+        <v>516.212026977539</v>
       </c>
       <c r="N64" t="n">
-        <v>503.7588421630859</v>
+        <v>503.7588409423828</v>
       </c>
     </row>
     <row r="65">
@@ -3094,16 +3094,16 @@
         <v>45646</v>
       </c>
       <c r="B65" t="n">
-        <v>515.8757934570312</v>
+        <v>515.8759155273438</v>
       </c>
       <c r="C65" t="n">
-        <v>522.0027604194175</v>
+        <v>522.0028839395379</v>
       </c>
       <c r="D65" t="n">
-        <v>506.5561270613736</v>
+        <v>506.5562469263983</v>
       </c>
       <c r="E65" t="n">
-        <v>507.6999477619047</v>
+        <v>507.7000678975887</v>
       </c>
       <c r="F65" t="n">
         <v>60530000</v>
@@ -3118,19 +3118,19 @@
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>0.008732368446084049</v>
+        <v>0.008732667334253152</v>
       </c>
       <c r="K65" t="n">
-        <v>0.06858678565098142</v>
+        <v>0.06858703850782111</v>
       </c>
       <c r="L65" t="n">
         <v>29029935</v>
       </c>
       <c r="M65" t="n">
-        <v>516.8923583984375</v>
+        <v>516.8923568725586</v>
       </c>
       <c r="N65" t="n">
-        <v>504.2774426269531</v>
+        <v>504.2774438476562</v>
       </c>
     </row>
     <row r="66">
@@ -3162,10 +3162,10 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>0.009742775442200369</v>
+        <v>0.009742536509518063</v>
       </c>
       <c r="K66" t="n">
-        <v>0.07899778674408164</v>
+        <v>0.07899778674408142</v>
       </c>
       <c r="L66" t="n">
         <v>29322245</v>
@@ -3174,7 +3174,7 @@
         <v>517.7837036132812</v>
       </c>
       <c r="N66" t="n">
-        <v>504.8812475585938</v>
+        <v>504.8812481689453</v>
       </c>
     </row>
     <row r="67">
@@ -3209,7 +3209,7 @@
         <v>0.01355985665635862</v>
       </c>
       <c r="K67" t="n">
-        <v>0.09362884206485966</v>
+        <v>0.09362884206485944</v>
       </c>
       <c r="L67" t="n">
         <v>28881395</v>
@@ -3218,7 +3218,7 @@
         <v>518.9884323120117</v>
       </c>
       <c r="N67" t="n">
-        <v>505.5439630126953</v>
+        <v>505.5439636230469</v>
       </c>
     </row>
     <row r="68">
@@ -3253,7 +3253,7 @@
         <v>-0.000679292065762338</v>
       </c>
       <c r="K68" t="n">
-        <v>0.09288594866955613</v>
+        <v>0.09288594866955591</v>
       </c>
       <c r="L68" t="n">
         <v>28508065</v>
@@ -3262,7 +3262,7 @@
         <v>520.0399597167968</v>
       </c>
       <c r="N68" t="n">
-        <v>506.331791381836</v>
+        <v>506.3317926025391</v>
       </c>
     </row>
     <row r="69">
@@ -3297,16 +3297,16 @@
         <v>-0.01329314348659105</v>
       </c>
       <c r="K69" t="n">
-        <v>0.07835805893941261</v>
+        <v>0.07835805893941239</v>
       </c>
       <c r="L69" t="n">
         <v>28952175</v>
       </c>
       <c r="M69" t="n">
-        <v>520.940234375</v>
+        <v>520.9402328491211</v>
       </c>
       <c r="N69" t="n">
-        <v>506.9781555175781</v>
+        <v>506.9781567382813</v>
       </c>
     </row>
     <row r="70">
@@ -3314,16 +3314,16 @@
         <v>45656</v>
       </c>
       <c r="B70" t="n">
-        <v>513.6691284179688</v>
+        <v>513.669189453125</v>
       </c>
       <c r="C70" t="n">
-        <v>517.4050126837748</v>
+        <v>517.4050741628361</v>
       </c>
       <c r="D70" t="n">
-        <v>509.9033582941444</v>
+        <v>509.9034188818446</v>
       </c>
       <c r="E70" t="n">
-        <v>513.5695291597104</v>
+        <v>513.5695901830321</v>
       </c>
       <c r="F70" t="n">
         <v>34584000</v>
@@ -3338,19 +3338,19 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>-0.01330000389242103</v>
+        <v>-0.01329988665082493</v>
       </c>
       <c r="K70" t="n">
-        <v>0.06401589255809492</v>
+        <v>0.06401601898651466</v>
       </c>
       <c r="L70" t="n">
         <v>29914675</v>
       </c>
       <c r="M70" t="n">
-        <v>521.2735046386719</v>
+        <v>521.2735061645508</v>
       </c>
       <c r="N70" t="n">
-        <v>507.4792785644531</v>
+        <v>507.4792810058594</v>
       </c>
     </row>
     <row r="71">
@@ -3358,16 +3358,16 @@
         <v>45657</v>
       </c>
       <c r="B71" t="n">
-        <v>509.3056640625</v>
+        <v>509.3056945800781</v>
       </c>
       <c r="C71" t="n">
-        <v>515.7114228726336</v>
+        <v>515.7114537740447</v>
       </c>
       <c r="D71" t="n">
-        <v>508.3393140727987</v>
+        <v>508.3393445324731</v>
       </c>
       <c r="E71" t="n">
-        <v>514.9543347038892</v>
+        <v>514.9543655599355</v>
       </c>
       <c r="F71" t="n">
         <v>29117000</v>
@@ -3382,19 +3382,19 @@
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>-0.008494698462622519</v>
+        <v>-0.008494756864223185</v>
       </c>
       <c r="K71" t="n">
-        <v>0.05497739839137572</v>
+        <v>0.05497746160558559</v>
       </c>
       <c r="L71" t="n">
         <v>30113165</v>
       </c>
       <c r="M71" t="n">
-        <v>521.1125946044922</v>
+        <v>521.11259765625</v>
       </c>
       <c r="N71" t="n">
-        <v>507.8290783691406</v>
+        <v>507.8290808105469</v>
       </c>
     </row>
     <row r="72">
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>-0.001956027373357982</v>
+        <v>-0.001956087176115395</v>
       </c>
       <c r="K72" t="n">
         <v>0.05291383372184821</v>
@@ -3435,10 +3435,10 @@
         <v>31002760</v>
       </c>
       <c r="M72" t="n">
-        <v>520.8232940673828</v>
+        <v>520.8233001708984</v>
       </c>
       <c r="N72" t="n">
-        <v>508.1400549316406</v>
+        <v>508.1400573730469</v>
       </c>
     </row>
     <row r="73">
@@ -3446,16 +3446,16 @@
         <v>45660</v>
       </c>
       <c r="B73" t="n">
-        <v>516.6280517578125</v>
+        <v>516.6279907226562</v>
       </c>
       <c r="C73" t="n">
-        <v>517.6940315122579</v>
+        <v>517.6939703511654</v>
       </c>
       <c r="D73" t="n">
-        <v>510.6008364706132</v>
+        <v>510.6007761475205</v>
       </c>
       <c r="E73" t="n">
-        <v>511.417696434176</v>
+        <v>511.4176360145784</v>
       </c>
       <c r="F73" t="n">
         <v>29059500</v>
@@ -3470,19 +3470,19 @@
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>0.01636523488672514</v>
+        <v>0.01636511481192326</v>
       </c>
       <c r="K73" t="n">
-        <v>0.07014501592618849</v>
+        <v>0.07014488949776854</v>
       </c>
       <c r="L73" t="n">
         <v>31151425</v>
       </c>
       <c r="M73" t="n">
-        <v>520.6321380615234</v>
+        <v>520.6321411132812</v>
       </c>
       <c r="N73" t="n">
-        <v>508.6066613769531</v>
+        <v>508.6066632080078</v>
       </c>
     </row>
     <row r="74">
@@ -3490,16 +3490,16 @@
         <v>45663</v>
       </c>
       <c r="B74" t="n">
-        <v>522.5656127929688</v>
+        <v>522.5655517578125</v>
       </c>
       <c r="C74" t="n">
-        <v>525.9328953582989</v>
+        <v>525.9328339298473</v>
       </c>
       <c r="D74" t="n">
-        <v>520.065111494004</v>
+        <v>520.0650507509039</v>
       </c>
       <c r="E74" t="n">
-        <v>522.0476114174397</v>
+        <v>522.0475504427856</v>
       </c>
       <c r="F74" t="n">
         <v>36109700</v>
@@ -3514,19 +3514,19 @@
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>0.01149291257986063</v>
+        <v>0.0114929139376494</v>
       </c>
       <c r="K74" t="n">
-        <v>0.08244409904200167</v>
+        <v>0.08244397261358172</v>
       </c>
       <c r="L74" t="n">
         <v>32048430</v>
       </c>
       <c r="M74" t="n">
-        <v>520.8099731445312</v>
+        <v>520.8099700927735</v>
       </c>
       <c r="N74" t="n">
-        <v>509.3432043457031</v>
+        <v>509.3432055664063</v>
       </c>
     </row>
     <row r="75">
@@ -3558,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>-0.01784432207799491</v>
+        <v>-0.01784420736315184</v>
       </c>
       <c r="K75" t="n">
         <v>0.0631286179072712</v>
@@ -3567,10 +3567,10 @@
         <v>32694815</v>
       </c>
       <c r="M75" t="n">
-        <v>520.2893188476562</v>
+        <v>520.2893157958985</v>
       </c>
       <c r="N75" t="n">
-        <v>509.8144750976563</v>
+        <v>509.8144763183594</v>
       </c>
     </row>
     <row r="76">
@@ -3611,10 +3611,10 @@
         <v>33199985</v>
       </c>
       <c r="M76" t="n">
-        <v>519.9770446777344</v>
+        <v>519.9770416259765</v>
       </c>
       <c r="N76" t="n">
-        <v>510.227861328125</v>
+        <v>510.2278619384766</v>
       </c>
     </row>
     <row r="77">
@@ -3655,7 +3655,7 @@
         <v>34009110</v>
       </c>
       <c r="M77" t="n">
-        <v>519.3508178710938</v>
+        <v>519.3508148193359</v>
       </c>
       <c r="N77" t="n">
         <v>510.4786651611328</v>
@@ -3699,7 +3699,7 @@
         <v>33985390</v>
       </c>
       <c r="M78" t="n">
-        <v>518.1798965454102</v>
+        <v>518.1798934936523</v>
       </c>
       <c r="N78" t="n">
         <v>510.6023022460938</v>
@@ -3787,7 +3787,7 @@
         <v>34802235</v>
       </c>
       <c r="M80" t="n">
-        <v>516.5087921142579</v>
+        <v>516.5087951660156</v>
       </c>
       <c r="N80" t="n">
         <v>511.4616162109375</v>
@@ -3798,16 +3798,16 @@
         <v>45673</v>
       </c>
       <c r="B81" t="n">
-        <v>511.1487121582031</v>
+        <v>511.1487426757812</v>
       </c>
       <c r="C81" t="n">
-        <v>517.1061831442493</v>
+        <v>517.1062140175117</v>
       </c>
       <c r="D81" t="n">
-        <v>511.0191966319489</v>
+        <v>511.0192271417945</v>
       </c>
       <c r="E81" t="n">
-        <v>517.026467249921</v>
+        <v>517.026498118424</v>
       </c>
       <c r="F81" t="n">
         <v>28229000</v>
@@ -3822,19 +3822,19 @@
         <v>0</v>
       </c>
       <c r="J81" t="n">
-        <v>-0.00700596069576187</v>
+        <v>-0.007005901410132465</v>
       </c>
       <c r="K81" t="n">
-        <v>0.05879509417273754</v>
+        <v>0.05879515738694741</v>
       </c>
       <c r="L81" t="n">
         <v>34614690</v>
       </c>
       <c r="M81" t="n">
-        <v>515.3021713256836</v>
+        <v>515.3021728515625</v>
       </c>
       <c r="N81" t="n">
-        <v>511.9883209228516</v>
+        <v>511.9883215332031</v>
       </c>
     </row>
     <row r="82">
@@ -3842,16 +3842,16 @@
         <v>45674</v>
       </c>
       <c r="B82" t="n">
-        <v>519.776123046875</v>
+        <v>519.7760620117188</v>
       </c>
       <c r="C82" t="n">
-        <v>522.0973697832961</v>
+        <v>522.0973084755655</v>
       </c>
       <c r="D82" t="n">
-        <v>511.1786021287471</v>
+        <v>511.1785421031621</v>
       </c>
       <c r="E82" t="n">
-        <v>520.8819303330192</v>
+        <v>520.8818691680126</v>
       </c>
       <c r="F82" t="n">
         <v>51837900</v>
@@ -3866,19 +3866,19 @@
         <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>0.01687847525281772</v>
+        <v>0.01687829513337924</v>
       </c>
       <c r="K82" t="n">
-        <v>0.07666594096753698</v>
+        <v>0.07666581453911703</v>
       </c>
       <c r="L82" t="n">
         <v>35777630</v>
       </c>
       <c r="M82" t="n">
-        <v>514.6447860717774</v>
+        <v>514.6447875976562</v>
       </c>
       <c r="N82" t="n">
-        <v>512.7158203125</v>
+        <v>512.7158209228515</v>
       </c>
     </row>
     <row r="83">
@@ -3886,16 +3886,16 @@
         <v>45678</v>
       </c>
       <c r="B83" t="n">
-        <v>522.8246459960938</v>
+        <v>522.8245849609375</v>
       </c>
       <c r="C83" t="n">
-        <v>523.9902251025194</v>
+        <v>523.990163931292</v>
       </c>
       <c r="D83" t="n">
-        <v>518.102497036575</v>
+        <v>518.1024365526878</v>
       </c>
       <c r="E83" t="n">
-        <v>522.5058431761768</v>
+        <v>522.5057821782378</v>
       </c>
       <c r="F83" t="n">
         <v>23628000</v>
@@ -3910,19 +3910,19 @@
         <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>0.005865069236633325</v>
+        <v>0.005865069925344191</v>
       </c>
       <c r="K83" t="n">
-        <v>0.08298066125603665</v>
+        <v>0.08298053482761669</v>
       </c>
       <c r="L83" t="n">
         <v>34223870</v>
       </c>
       <c r="M83" t="n">
-        <v>515.1011398315429</v>
+        <v>515.1011383056641</v>
       </c>
       <c r="N83" t="n">
-        <v>513.38095703125</v>
+        <v>513.3809558105469</v>
       </c>
     </row>
     <row r="84">
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="n">
-        <v>0.01278572545117251</v>
+        <v>0.01278584368496793</v>
       </c>
       <c r="K84" t="n">
         <v>0.09682735465978554</v>
@@ -3966,7 +3966,7 @@
         <v>516.0061080932617</v>
       </c>
       <c r="N84" t="n">
-        <v>513.913822631836</v>
+        <v>513.9138220214844</v>
       </c>
     </row>
     <row r="85">
@@ -3974,16 +3974,16 @@
         <v>45680</v>
       </c>
       <c r="B85" t="n">
-        <v>530.6351318359375</v>
+        <v>530.6350708007812</v>
       </c>
       <c r="C85" t="n">
-        <v>530.7546752856922</v>
+        <v>530.7546142367858</v>
       </c>
       <c r="D85" t="n">
-        <v>526.4609007666552</v>
+        <v>526.4608402116309</v>
       </c>
       <c r="E85" t="n">
-        <v>527.0486459270462</v>
+        <v>527.0485853044178</v>
       </c>
       <c r="F85" t="n">
         <v>23096600</v>
@@ -3998,19 +3998,19 @@
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>0.0021261068982803</v>
+        <v>0.002125991630896218</v>
       </c>
       <c r="K85" t="n">
-        <v>0.09915932686475015</v>
+        <v>0.0991592004363302</v>
       </c>
       <c r="L85" t="n">
         <v>31709760</v>
       </c>
       <c r="M85" t="n">
-        <v>516.7440750122071</v>
+        <v>516.7440658569336</v>
       </c>
       <c r="N85" t="n">
-        <v>514.3108593749999</v>
+        <v>514.3108575439453</v>
       </c>
     </row>
     <row r="86">
@@ -4042,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>-0.005651186817095089</v>
+        <v>-0.005651072444264216</v>
       </c>
       <c r="K86" t="n">
         <v>0.09294777216688499</v>
@@ -4051,10 +4051,10 @@
         <v>31220035</v>
       </c>
       <c r="M86" t="n">
-        <v>517.0808029174805</v>
+        <v>517.080793762207</v>
       </c>
       <c r="N86" t="n">
-        <v>514.6359857177735</v>
+        <v>514.6359826660156</v>
       </c>
     </row>
     <row r="87">
@@ -4062,16 +4062,16 @@
         <v>45684</v>
       </c>
       <c r="B87" t="n">
-        <v>512.2745361328125</v>
+        <v>512.2744750976562</v>
       </c>
       <c r="C87" t="n">
-        <v>516.0402765990139</v>
+        <v>516.0402151151869</v>
       </c>
       <c r="D87" t="n">
-        <v>508.2297899969277</v>
+        <v>508.2297294436843</v>
       </c>
       <c r="E87" t="n">
-        <v>509.0765966785985</v>
+        <v>509.076536024462</v>
       </c>
       <c r="F87" t="n">
         <v>60771700</v>
@@ -4086,19 +4086,19 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>-0.02911451341529792</v>
+        <v>-0.02911462909184082</v>
       </c>
       <c r="K87" t="n">
-        <v>0.06112712959191224</v>
+        <v>0.06112700316349229</v>
       </c>
       <c r="L87" t="n">
         <v>33380710</v>
       </c>
       <c r="M87" t="n">
-        <v>516.2962692260742</v>
+        <v>516.296257019043</v>
       </c>
       <c r="N87" t="n">
-        <v>514.6598406982422</v>
+        <v>514.6598364257812</v>
       </c>
     </row>
     <row r="88">
@@ -4106,16 +4106,16 @@
         <v>45685</v>
       </c>
       <c r="B88" t="n">
-        <v>519.8458251953125</v>
+        <v>519.8458862304688</v>
       </c>
       <c r="C88" t="n">
-        <v>521.0313482861533</v>
+        <v>521.0314094605019</v>
       </c>
       <c r="D88" t="n">
-        <v>509.8535808601586</v>
+        <v>509.8536407221243</v>
       </c>
       <c r="E88" t="n">
-        <v>513.2806042053568</v>
+        <v>513.2806644696897</v>
       </c>
       <c r="F88" t="n">
         <v>33194200</v>
@@ -4130,19 +4130,19 @@
         <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>0.01477974899876155</v>
+        <v>0.01477998905053624</v>
       </c>
       <c r="K88" t="n">
-        <v>0.07681032222305695</v>
+        <v>0.07681044865147713</v>
       </c>
       <c r="L88" t="n">
         <v>34085895</v>
       </c>
       <c r="M88" t="n">
-        <v>515.9082321166992</v>
+        <v>515.9082229614257</v>
       </c>
       <c r="N88" t="n">
-        <v>514.8536236572265</v>
+        <v>514.8536199951172</v>
       </c>
     </row>
     <row r="89">
@@ -4150,16 +4150,16 @@
         <v>45686</v>
       </c>
       <c r="B89" t="n">
-        <v>518.8695678710938</v>
+        <v>518.86962890625</v>
       </c>
       <c r="C89" t="n">
-        <v>520.6229528077788</v>
+        <v>520.6230140491875</v>
       </c>
       <c r="D89" t="n">
-        <v>514.9543680275574</v>
+        <v>514.9544286021647</v>
       </c>
       <c r="E89" t="n">
-        <v>520.4934372745863</v>
+        <v>520.49349850076</v>
       </c>
       <c r="F89" t="n">
         <v>26649000</v>
@@ -4174,19 +4174,19 @@
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>-0.001877974731935073</v>
+        <v>-0.001877974511441893</v>
       </c>
       <c r="K89" t="n">
-        <v>0.07478809964683508</v>
+        <v>0.07478822607525526</v>
       </c>
       <c r="L89" t="n">
         <v>33726365</v>
       </c>
       <c r="M89" t="n">
-        <v>515.8220596313477</v>
+        <v>515.8220535278321</v>
       </c>
       <c r="N89" t="n">
-        <v>515.0410089111328</v>
+        <v>515.0410070800781</v>
       </c>
     </row>
     <row r="90">
@@ -4218,19 +4218,19 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>0.004262359991149545</v>
+        <v>0.00426224185875812</v>
       </c>
       <c r="K90" t="n">
-        <v>0.0793692334417333</v>
+        <v>0.07936923344173352</v>
       </c>
       <c r="L90" t="n">
         <v>33368730</v>
       </c>
       <c r="M90" t="n">
-        <v>516.1926620483398</v>
+        <v>516.1926528930665</v>
       </c>
       <c r="N90" t="n">
-        <v>515.3434448242188</v>
+        <v>515.3434429931641</v>
       </c>
     </row>
     <row r="91">
@@ -4265,16 +4265,16 @@
         <v>-0.001453019504546682</v>
       </c>
       <c r="K91" t="n">
-        <v>0.07780088889293491</v>
+        <v>0.07780088889293513</v>
       </c>
       <c r="L91" t="n">
         <v>33850640</v>
       </c>
       <c r="M91" t="n">
-        <v>516.7435806274414</v>
+        <v>516.7435699462891</v>
       </c>
       <c r="N91" t="n">
-        <v>515.8718371582031</v>
+        <v>515.8718347167969</v>
       </c>
     </row>
     <row r="92">
@@ -4282,16 +4282,16 @@
         <v>45691</v>
       </c>
       <c r="B92" t="n">
-        <v>516.1597900390625</v>
+        <v>516.1597290039062</v>
       </c>
       <c r="C92" t="n">
-        <v>518.8894667950981</v>
+        <v>518.8894054371615</v>
       </c>
       <c r="D92" t="n">
-        <v>509.1263667109108</v>
+        <v>509.1263065074468</v>
       </c>
       <c r="E92" t="n">
-        <v>511.5372406684099</v>
+        <v>511.5371801798635</v>
       </c>
       <c r="F92" t="n">
         <v>40580800</v>
@@ -4306,19 +4306,19 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>-0.008003177482105883</v>
+        <v>-0.008003294784309944</v>
       </c>
       <c r="K92" t="n">
-        <v>0.06917505708875327</v>
+        <v>0.06917493066033376</v>
       </c>
       <c r="L92" t="n">
         <v>34060190</v>
       </c>
       <c r="M92" t="n">
-        <v>517.1360977172851</v>
+        <v>517.136083984375</v>
       </c>
       <c r="N92" t="n">
-        <v>516.248314819336</v>
+        <v>516.2483111572266</v>
       </c>
     </row>
     <row r="93">
@@ -4350,19 +4350,19 @@
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0.01227538388806493</v>
+        <v>0.01227550358819407</v>
       </c>
       <c r="K93" t="n">
-        <v>0.08229959135806153</v>
+        <v>0.08229959135806175</v>
       </c>
       <c r="L93" t="n">
         <v>33909555</v>
       </c>
       <c r="M93" t="n">
-        <v>517.4294876098633</v>
+        <v>517.429476928711</v>
       </c>
       <c r="N93" t="n">
-        <v>516.6830834960938</v>
+        <v>516.6830792236328</v>
       </c>
     </row>
     <row r="94">
@@ -4397,16 +4397,16 @@
         <v>0.004537897701228477</v>
       </c>
       <c r="K94" t="n">
-        <v>0.08721095618572572</v>
+        <v>0.08721095618572594</v>
       </c>
       <c r="L94" t="n">
         <v>33160775</v>
       </c>
       <c r="M94" t="n">
-        <v>517.5445510864258</v>
+        <v>517.5445434570313</v>
       </c>
       <c r="N94" t="n">
-        <v>517.1710406494141</v>
+        <v>517.1710369873047</v>
       </c>
     </row>
     <row r="95">
@@ -4441,16 +4441,16 @@
         <v>0.005219771242685134</v>
       </c>
       <c r="K95" t="n">
-        <v>0.09288594866955613</v>
+        <v>0.09288594866955635</v>
       </c>
       <c r="L95" t="n">
         <v>32297985</v>
       </c>
       <c r="M95" t="n">
-        <v>518.2628402709961</v>
+        <v>518.2628326416016</v>
       </c>
       <c r="N95" t="n">
-        <v>517.6777862548828</v>
+        <v>517.6777819824218</v>
       </c>
     </row>
     <row r="96">
@@ -4458,16 +4458,16 @@
         <v>45695</v>
       </c>
       <c r="B96" t="n">
-        <v>520.9515991210938</v>
+        <v>520.95166015625</v>
       </c>
       <c r="C96" t="n">
-        <v>530.0970363211669</v>
+        <v>530.0970984278108</v>
       </c>
       <c r="D96" t="n">
-        <v>520.2243664565356</v>
+        <v>520.2244274064886</v>
       </c>
       <c r="E96" t="n">
-        <v>528.1444531000723</v>
+        <v>528.1445149779497</v>
       </c>
       <c r="F96" t="n">
         <v>29605500</v>
@@ -4482,19 +4482,19 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>-0.01261350535254069</v>
+        <v>-0.01261338966945413</v>
       </c>
       <c r="K96" t="n">
-        <v>0.07910082590629619</v>
+        <v>0.07910095233471615</v>
       </c>
       <c r="L96" t="n">
         <v>32239370</v>
       </c>
       <c r="M96" t="n">
-        <v>518.6438980102539</v>
+        <v>518.6438934326172</v>
       </c>
       <c r="N96" t="n">
-        <v>518.0353192138672</v>
+        <v>518.035316772461</v>
       </c>
     </row>
     <row r="97">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0.01210518096027657</v>
+        <v>0.01210506238114029</v>
       </c>
       <c r="K97" t="n">
         <v>0.09216353667827581</v>
@@ -4535,10 +4535,10 @@
         <v>31255385</v>
       </c>
       <c r="M97" t="n">
-        <v>519.7427444458008</v>
+        <v>519.7427398681641</v>
       </c>
       <c r="N97" t="n">
-        <v>518.5030627441406</v>
+        <v>518.5030603027344</v>
       </c>
     </row>
     <row r="98">
@@ -4579,10 +4579,10 @@
         <v>30636950</v>
       </c>
       <c r="M98" t="n">
-        <v>520.8600219726562</v>
+        <v>520.8600173950196</v>
       </c>
       <c r="N98" t="n">
-        <v>518.8915936279296</v>
+        <v>518.8915911865234</v>
       </c>
     </row>
     <row r="99">
@@ -4623,10 +4623,10 @@
         <v>30200560</v>
       </c>
       <c r="M99" t="n">
-        <v>522.0166519165039</v>
+        <v>522.0166473388672</v>
       </c>
       <c r="N99" t="n">
-        <v>519.3660711669922</v>
+        <v>519.3660681152344</v>
       </c>
     </row>
     <row r="100">
@@ -4667,10 +4667,10 @@
         <v>29888420</v>
       </c>
       <c r="M100" t="n">
-        <v>522.9730392456055</v>
+        <v>522.9730346679687</v>
       </c>
       <c r="N100" t="n">
-        <v>519.9036529541015</v>
+        <v>519.9036499023438</v>
       </c>
     </row>
     <row r="101">
@@ -4678,16 +4678,16 @@
         <v>45702</v>
       </c>
       <c r="B101" t="n">
-        <v>536.1243286132812</v>
+        <v>536.1243896484375</v>
       </c>
       <c r="C101" t="n">
-        <v>536.8117337584231</v>
+        <v>536.8117948718372</v>
       </c>
       <c r="D101" t="n">
-        <v>533.6536224423348</v>
+        <v>533.6536831962131</v>
       </c>
       <c r="E101" t="n">
-        <v>533.9923693740982</v>
+        <v>533.9924301665412</v>
       </c>
       <c r="F101" t="n">
         <v>17862600</v>
@@ -4702,19 +4702,19 @@
         <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>0.004198517091765774</v>
+        <v>0.004198631414899623</v>
       </c>
       <c r="K101" t="n">
-        <v>0.1105296668080142</v>
+        <v>0.110529793236434</v>
       </c>
       <c r="L101" t="n">
         <v>29370100</v>
       </c>
       <c r="M101" t="n">
-        <v>524.2218200683594</v>
+        <v>524.2218170166016</v>
       </c>
       <c r="N101" t="n">
-        <v>520.3756622314453</v>
+        <v>520.3756604003906</v>
       </c>
     </row>
     <row r="102">
@@ -4722,16 +4722,16 @@
         <v>45706</v>
       </c>
       <c r="B102" t="n">
-        <v>537.3397827148438</v>
+        <v>537.3397216796875</v>
       </c>
       <c r="C102" t="n">
-        <v>537.9674162315473</v>
+        <v>537.9673551250996</v>
       </c>
       <c r="D102" t="n">
-        <v>534.022299955899</v>
+        <v>534.0222392975678</v>
       </c>
       <c r="E102" t="n">
-        <v>537.698413065698</v>
+        <v>537.6983519898058</v>
       </c>
       <c r="F102" t="n">
         <v>20565000</v>
@@ -4746,19 +4746,19 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>0.002267112378030678</v>
+        <v>0.002266884429650728</v>
       </c>
       <c r="K102" t="n">
-        <v>0.1130473623618049</v>
+        <v>0.1130472359333849</v>
       </c>
       <c r="L102" t="n">
         <v>27806455</v>
       </c>
       <c r="M102" t="n">
-        <v>525.1000030517578</v>
+        <v>525.1</v>
       </c>
       <c r="N102" t="n">
-        <v>520.8405487060547</v>
+        <v>520.840546875</v>
       </c>
     </row>
     <row r="103">
@@ -4766,16 +4766,16 @@
         <v>45707</v>
       </c>
       <c r="B103" t="n">
-        <v>537.4891967773438</v>
+        <v>537.4892578125</v>
       </c>
       <c r="C103" t="n">
-        <v>538.774319161458</v>
+        <v>538.7743803425477</v>
       </c>
       <c r="D103" t="n">
-        <v>534.440717443179</v>
+        <v>534.4407781321619</v>
       </c>
       <c r="E103" t="n">
-        <v>536.5427605384632</v>
+        <v>536.5428214661459</v>
       </c>
       <c r="F103" t="n">
         <v>19666900</v>
@@ -4790,19 +4790,19 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>0.0002780625356735289</v>
+        <v>0.0002782897425581687</v>
       </c>
       <c r="K103" t="n">
-        <v>0.113356859133708</v>
+        <v>0.1133569855621279</v>
       </c>
       <c r="L103" t="n">
         <v>27608400</v>
       </c>
       <c r="M103" t="n">
-        <v>525.8332305908203</v>
+        <v>525.8332336425781</v>
       </c>
       <c r="N103" t="n">
-        <v>521.1813092041016</v>
+        <v>521.18130859375</v>
       </c>
     </row>
     <row r="104">
@@ -4810,16 +4810,16 @@
         <v>45708</v>
       </c>
       <c r="B104" t="n">
-        <v>535.2078247070312</v>
+        <v>535.207763671875</v>
       </c>
       <c r="C104" t="n">
-        <v>537.0707810856188</v>
+        <v>537.0707198380107</v>
       </c>
       <c r="D104" t="n">
-        <v>530.4558205310736</v>
+        <v>530.4557600378364</v>
       </c>
       <c r="E104" t="n">
-        <v>536.7021786452833</v>
+        <v>536.7021174397108</v>
       </c>
       <c r="F104" t="n">
         <v>26550800</v>
@@ -4834,10 +4834,10 @@
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>-0.00424449846432462</v>
+        <v>-0.004244725094433188</v>
       </c>
       <c r="K104" t="n">
-        <v>0.1086312176548696</v>
+        <v>0.1086310912264499</v>
       </c>
       <c r="L104" t="n">
         <v>27256290</v>
@@ -4846,7 +4846,7 @@
         <v>526.1181549072265</v>
       </c>
       <c r="N104" t="n">
-        <v>521.505287475586</v>
+        <v>521.5052844238281</v>
       </c>
     </row>
     <row r="105">
@@ -4878,7 +4878,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>-0.02075472881548257</v>
+        <v>-0.02075461714223681</v>
       </c>
       <c r="K105" t="n">
         <v>0.08562187737606464</v>
@@ -4887,10 +4887,10 @@
         <v>28456150</v>
       </c>
       <c r="M105" t="n">
-        <v>525.7913848876954</v>
+        <v>525.7913879394531</v>
       </c>
       <c r="N105" t="n">
-        <v>521.5142047119141</v>
+        <v>521.5142016601562</v>
       </c>
     </row>
     <row r="106">
@@ -4931,10 +4931,10 @@
         <v>29425655</v>
       </c>
       <c r="M106" t="n">
-        <v>525.3052215576172</v>
+        <v>525.305224609375</v>
       </c>
       <c r="N106" t="n">
-        <v>521.4809490966796</v>
+        <v>521.4809460449219</v>
       </c>
     </row>
     <row r="107">
@@ -4942,16 +4942,16 @@
         <v>45713</v>
       </c>
       <c r="B107" t="n">
-        <v>511.3877868652344</v>
+        <v>511.3878173828125</v>
       </c>
       <c r="C107" t="n">
-        <v>517.3652018839585</v>
+        <v>517.3652327582449</v>
       </c>
       <c r="D107" t="n">
-        <v>507.5223869553599</v>
+        <v>507.5224172422664</v>
       </c>
       <c r="E107" t="n">
-        <v>517.2854859915275</v>
+        <v>517.2855168610567</v>
       </c>
       <c r="F107" t="n">
         <v>48940000</v>
@@ -4966,19 +4966,19 @@
         <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>-0.01259933281393688</v>
+        <v>-0.01259927388981352</v>
       </c>
       <c r="K107" t="n">
-        <v>0.05929031429346665</v>
+        <v>0.05929037750767674</v>
       </c>
       <c r="L107" t="n">
         <v>28834070</v>
       </c>
       <c r="M107" t="n">
-        <v>525.2608840942382</v>
+        <v>525.2608917236328</v>
       </c>
       <c r="N107" t="n">
-        <v>521.3525964355468</v>
+        <v>521.3525939941406</v>
       </c>
     </row>
     <row r="108">
@@ -5010,19 +5010,19 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
-        <v>0.002415624848012721</v>
+        <v>0.002415565027860334</v>
       </c>
       <c r="K108" t="n">
-        <v>0.06184916229793314</v>
+        <v>0.06184916229793336</v>
       </c>
       <c r="L108" t="n">
         <v>28897240</v>
       </c>
       <c r="M108" t="n">
-        <v>524.8997482299804</v>
+        <v>524.8997528076172</v>
       </c>
       <c r="N108" t="n">
-        <v>521.0635498046875</v>
+        <v>521.0635473632813</v>
       </c>
     </row>
     <row r="109">
@@ -5030,16 +5030,16 @@
         <v>45715</v>
       </c>
       <c r="B109" t="n">
-        <v>498.3869323730469</v>
+        <v>498.3869018554688</v>
       </c>
       <c r="C109" t="n">
-        <v>517.1161858963768</v>
+        <v>517.116154231956</v>
       </c>
       <c r="D109" t="n">
-        <v>498.1677592547059</v>
+        <v>498.1677287505483</v>
       </c>
       <c r="E109" t="n">
-        <v>516.179721700075</v>
+        <v>516.1796900929963</v>
       </c>
       <c r="F109" t="n">
         <v>52448000</v>
@@ -5054,10 +5054,10 @@
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>-0.0277712325438213</v>
+        <v>-0.02777129207601503</v>
       </c>
       <c r="K109" t="n">
-        <v>0.03236030228529541</v>
+        <v>0.03236023907108554</v>
       </c>
       <c r="L109" t="n">
         <v>30187190</v>
@@ -5066,7 +5066,7 @@
         <v>523.8756164550781</v>
       </c>
       <c r="N109" t="n">
-        <v>520.5578131103516</v>
+        <v>520.5578112792969</v>
       </c>
     </row>
     <row r="110">
@@ -5098,10 +5098,10 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>0.01579148501730709</v>
+        <v>0.01579154721696741</v>
       </c>
       <c r="K110" t="n">
-        <v>0.04866280453129623</v>
+        <v>0.04866280453129646</v>
       </c>
       <c r="L110" t="n">
         <v>31198325</v>
@@ -5110,7 +5110,7 @@
         <v>523.1344177246094</v>
       </c>
       <c r="N110" t="n">
-        <v>520.1293133544922</v>
+        <v>520.1293127441406</v>
       </c>
     </row>
     <row r="111">
@@ -5118,16 +5118,16 @@
         <v>45719</v>
       </c>
       <c r="B111" t="n">
-        <v>495.1790466308594</v>
+        <v>495.1790161132812</v>
       </c>
       <c r="C111" t="n">
-        <v>511.1088490940928</v>
+        <v>511.1088175947708</v>
       </c>
       <c r="D111" t="n">
-        <v>491.7221068089609</v>
+        <v>491.7220765044318</v>
       </c>
       <c r="E111" t="n">
-        <v>509.5945814567039</v>
+        <v>509.5945500507053</v>
       </c>
       <c r="F111" t="n">
         <v>44587200</v>
@@ -5142,19 +5142,19 @@
         <v>0</v>
       </c>
       <c r="J111" t="n">
-        <v>-0.02188246502087288</v>
+        <v>-0.02188252530165102</v>
       </c>
       <c r="K111" t="n">
-        <v>0.02571547739244973</v>
+        <v>0.02571541417824008</v>
       </c>
       <c r="L111" t="n">
         <v>31489925</v>
       </c>
       <c r="M111" t="n">
-        <v>521.8771682739258</v>
+        <v>521.8771667480469</v>
       </c>
       <c r="N111" t="n">
-        <v>519.3272717285156</v>
+        <v>519.3272692871094</v>
       </c>
     </row>
     <row r="112">
@@ -5186,19 +5186,19 @@
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>-0.003017805899127368</v>
+        <v>-0.003017744455728111</v>
       </c>
       <c r="K112" t="n">
-        <v>0.02262006717394849</v>
+        <v>0.02262006717394893</v>
       </c>
       <c r="L112" t="n">
         <v>32854655</v>
       </c>
       <c r="M112" t="n">
-        <v>520.7534133911133</v>
+        <v>520.7534149169921</v>
       </c>
       <c r="N112" t="n">
-        <v>518.5424890136719</v>
+        <v>518.5424877929687</v>
       </c>
     </row>
     <row r="113">
@@ -5206,16 +5206,16 @@
         <v>45721</v>
       </c>
       <c r="B113" t="n">
-        <v>500.1203918457031</v>
+        <v>500.120361328125</v>
       </c>
       <c r="C113" t="n">
-        <v>501.7342891326799</v>
+        <v>501.734258516621</v>
       </c>
       <c r="D113" t="n">
-        <v>489.4108559644338</v>
+        <v>489.4108261003565</v>
       </c>
       <c r="E113" t="n">
-        <v>494.3322637225546</v>
+        <v>494.3322335581707</v>
       </c>
       <c r="F113" t="n">
         <v>46323700</v>
@@ -5230,10 +5230,10 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>0.01303605228638571</v>
+        <v>0.01303599047045623</v>
       </c>
       <c r="K113" t="n">
-        <v>0.0359509958387354</v>
+        <v>0.03595093262452576</v>
       </c>
       <c r="L113" t="n">
         <v>33868500</v>
@@ -5242,7 +5242,7 @@
         <v>519.6346405029296</v>
       </c>
       <c r="N113" t="n">
-        <v>518.2709454345703</v>
+        <v>518.2709436035157</v>
       </c>
     </row>
     <row r="114">
@@ -5274,10 +5274,10 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
-        <v>-0.02750942842436921</v>
+        <v>-0.0275093690825402</v>
       </c>
       <c r="K114" t="n">
-        <v>0.007452576067555672</v>
+        <v>0.007452576067555894</v>
       </c>
       <c r="L114" t="n">
         <v>35690510</v>
@@ -5286,7 +5286,7 @@
         <v>517.7094146728516</v>
       </c>
       <c r="N114" t="n">
-        <v>517.7699932861328</v>
+        <v>517.7699920654297</v>
       </c>
     </row>
     <row r="115">
@@ -5321,7 +5321,7 @@
         <v>0.007353586174467353</v>
       </c>
       <c r="K115" t="n">
-        <v>0.01486096540235748</v>
+        <v>0.01486096540235771</v>
       </c>
       <c r="L115" t="n">
         <v>37454520</v>
@@ -5330,7 +5330,7 @@
         <v>515.8260299682618</v>
       </c>
       <c r="N115" t="n">
-        <v>517.2512548828125</v>
+        <v>517.2512512207031</v>
       </c>
     </row>
     <row r="116">
@@ -5365,16 +5365,16 @@
         <v>-0.03875636690118922</v>
       </c>
       <c r="K116" t="n">
-        <v>-0.02447135852647142</v>
+        <v>-0.0244713585264712</v>
       </c>
       <c r="L116" t="n">
         <v>39807645</v>
       </c>
       <c r="M116" t="n">
-        <v>513.3259811401367</v>
+        <v>513.3259780883789</v>
       </c>
       <c r="N116" t="n">
-        <v>516.2522302246093</v>
+        <v>516.2522265625</v>
       </c>
     </row>
     <row r="117">
@@ -5409,16 +5409,16 @@
         <v>-0.002390405459784861</v>
       </c>
       <c r="K117" t="n">
-        <v>-0.02680326751722628</v>
+        <v>-0.02680326751722606</v>
       </c>
       <c r="L117" t="n">
         <v>42203045</v>
       </c>
       <c r="M117" t="n">
-        <v>510.4543334960937</v>
+        <v>510.4543304443359</v>
       </c>
       <c r="N117" t="n">
-        <v>515.0894232177734</v>
+        <v>515.0894195556641</v>
       </c>
     </row>
     <row r="118">
@@ -5453,16 +5453,16 @@
         <v>0.01128077342962475</v>
       </c>
       <c r="K118" t="n">
-        <v>-0.01582485567563696</v>
+        <v>-0.01582485567563674</v>
       </c>
       <c r="L118" t="n">
         <v>43585325</v>
       </c>
       <c r="M118" t="n">
-        <v>507.9104476928711</v>
+        <v>507.9104446411133</v>
       </c>
       <c r="N118" t="n">
-        <v>514.0397888183594</v>
+        <v>514.03978515625</v>
       </c>
     </row>
     <row r="119">
@@ -5470,16 +5470,16 @@
         <v>45729</v>
       </c>
       <c r="B119" t="n">
-        <v>466.5771179199219</v>
+        <v>466.5770874023438</v>
       </c>
       <c r="C119" t="n">
-        <v>474.4872334008891</v>
+        <v>474.4872023659312</v>
       </c>
       <c r="D119" t="n">
-        <v>464.6743037019353</v>
+        <v>464.6742733088153</v>
       </c>
       <c r="E119" t="n">
-        <v>474.4573475399869</v>
+        <v>474.4573165069838</v>
       </c>
       <c r="F119" t="n">
         <v>46563300</v>
@@ -5494,19 +5494,19 @@
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>-0.01799049142292797</v>
+        <v>-0.01799055565357865</v>
       </c>
       <c r="K119" t="n">
-        <v>-0.03353065016826329</v>
+        <v>-0.03353071338247304</v>
       </c>
       <c r="L119" t="n">
         <v>44663020</v>
       </c>
       <c r="M119" t="n">
-        <v>504.9237335205078</v>
+        <v>504.9237289428711</v>
       </c>
       <c r="N119" t="n">
-        <v>512.9594708251954</v>
+        <v>512.9594665527344</v>
       </c>
     </row>
     <row r="120">
@@ -5538,7 +5538,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>0.0241704400718461</v>
+        <v>0.02417050706013635</v>
       </c>
       <c r="K120" t="n">
         <v>-0.01017066066687922</v>
@@ -5547,10 +5547,10 @@
         <v>45405430</v>
       </c>
       <c r="M120" t="n">
-        <v>502.1223175048828</v>
+        <v>502.1223129272461</v>
       </c>
       <c r="N120" t="n">
-        <v>512.243178100586</v>
+        <v>512.2431726074219</v>
       </c>
     </row>
     <row r="121">
@@ -5591,10 +5591,10 @@
         <v>46599520</v>
       </c>
       <c r="M121" t="n">
-        <v>499.3637390136719</v>
+        <v>499.3637313842773</v>
       </c>
       <c r="N121" t="n">
-        <v>511.6761199951172</v>
+        <v>511.6761138916016</v>
       </c>
     </row>
     <row r="122">
@@ -5635,10 +5635,10 @@
         <v>47524885</v>
       </c>
       <c r="M122" t="n">
-        <v>496.1344390869141</v>
+        <v>496.1344345092774</v>
       </c>
       <c r="N122" t="n">
-        <v>510.9650067138672</v>
+        <v>510.9650006103516</v>
       </c>
     </row>
     <row r="123">
@@ -5646,16 +5646,16 @@
         <v>45735</v>
       </c>
       <c r="B123" t="n">
-        <v>479.0798645019531</v>
+        <v>479.0798950195312</v>
       </c>
       <c r="C123" t="n">
-        <v>483.5031236316215</v>
+        <v>483.503154430963</v>
       </c>
       <c r="D123" t="n">
-        <v>473.0825053273427</v>
+        <v>473.0825354628867</v>
       </c>
       <c r="E123" t="n">
-        <v>475.0152052762942</v>
+        <v>475.015235534952</v>
       </c>
       <c r="F123" t="n">
         <v>40430300</v>
@@ -5670,19 +5670,19 @@
         <v>0</v>
       </c>
       <c r="J123" t="n">
-        <v>0.01338134253804557</v>
+        <v>0.01338140709084046</v>
       </c>
       <c r="K123" t="n">
-        <v>-0.007632420494855574</v>
+        <v>-0.007632357280645707</v>
       </c>
       <c r="L123" t="n">
         <v>48563055</v>
       </c>
       <c r="M123" t="n">
-        <v>493.2139724731445</v>
+        <v>493.2139663696289</v>
       </c>
       <c r="N123" t="n">
-        <v>510.21404296875</v>
+        <v>510.214038696289</v>
       </c>
     </row>
     <row r="124">
@@ -5690,16 +5690,16 @@
         <v>45736</v>
       </c>
       <c r="B124" t="n">
-        <v>477.4560241699219</v>
+        <v>477.4559936523438</v>
       </c>
       <c r="C124" t="n">
-        <v>482.7260901579374</v>
+        <v>482.7260593035122</v>
       </c>
       <c r="D124" t="n">
-        <v>474.3876005916405</v>
+        <v>474.3875702701869</v>
       </c>
       <c r="E124" t="n">
-        <v>475.0849778783517</v>
+        <v>475.0849475123239</v>
       </c>
       <c r="F124" t="n">
         <v>36780500</v>
@@ -5714,19 +5714,19 @@
         <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>-0.003389498186736284</v>
+        <v>-0.003389625371612137</v>
       </c>
       <c r="K124" t="n">
-        <v>-0.0109960486061641</v>
+        <v>-0.01099611182037419</v>
       </c>
       <c r="L124" t="n">
         <v>49074540</v>
       </c>
       <c r="M124" t="n">
-        <v>490.3263824462891</v>
+        <v>490.3263778686523</v>
       </c>
       <c r="N124" t="n">
-        <v>509.3118511962891</v>
+        <v>509.3118475341797</v>
       </c>
     </row>
     <row r="125">
@@ -5734,16 +5734,16 @@
         <v>45737</v>
       </c>
       <c r="B125" t="n">
-        <v>479.0300598144531</v>
+        <v>479.030029296875</v>
       </c>
       <c r="C125" t="n">
-        <v>479.7971505017605</v>
+        <v>479.7971199353133</v>
       </c>
       <c r="D125" t="n">
-        <v>471.1299165344871</v>
+        <v>471.1298865202036</v>
       </c>
       <c r="E125" t="n">
-        <v>472.2954954956853</v>
+        <v>472.2954654071461</v>
       </c>
       <c r="F125" t="n">
         <v>42234900</v>
@@ -5758,19 +5758,19 @@
         <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>0.003296713340810387</v>
+        <v>0.003296713551526498</v>
       </c>
       <c r="K125" t="n">
-        <v>-0.007735586085489854</v>
+        <v>-0.007735649299700054</v>
       </c>
       <c r="L125" t="n">
         <v>48831595</v>
       </c>
       <c r="M125" t="n">
-        <v>488.0728988647461</v>
+        <v>488.0728927612305</v>
       </c>
       <c r="N125" t="n">
-        <v>508.62763671875</v>
+        <v>508.6276324462891</v>
       </c>
     </row>
     <row r="126">
@@ -5802,19 +5802,19 @@
         <v>0</v>
       </c>
       <c r="J126" t="n">
-        <v>0.02194432936478941</v>
+        <v>0.02194439446982255</v>
       </c>
       <c r="K126" t="n">
-        <v>0.01403899103040995</v>
+        <v>0.01403899103040973</v>
       </c>
       <c r="L126" t="n">
         <v>48596535</v>
       </c>
       <c r="M126" t="n">
-        <v>486.6543441772461</v>
+        <v>486.6543380737305</v>
       </c>
       <c r="N126" t="n">
-        <v>508.1518688964844</v>
+        <v>508.1518646240235</v>
       </c>
     </row>
     <row r="127">
@@ -5849,16 +5849,16 @@
         <v>0.005706577403821189</v>
       </c>
       <c r="K127" t="n">
-        <v>0.01982568302321774</v>
+        <v>0.01982568302321752</v>
       </c>
       <c r="L127" t="n">
         <v>47451295</v>
       </c>
       <c r="M127" t="n">
-        <v>485.7017379760742</v>
+        <v>485.7017303466797</v>
       </c>
       <c r="N127" t="n">
-        <v>507.8929644775391</v>
+        <v>507.8929602050781</v>
       </c>
     </row>
     <row r="128">
@@ -5893,16 +5893,16 @@
         <v>-0.01840064886221315</v>
       </c>
       <c r="K128" t="n">
-        <v>0.00106022872924072</v>
+        <v>0.001060228729240498</v>
       </c>
       <c r="L128" t="n">
         <v>47459770</v>
       </c>
       <c r="M128" t="n">
-        <v>484.2344009399414</v>
+        <v>484.2343933105469</v>
       </c>
       <c r="N128" t="n">
-        <v>507.4853515625</v>
+        <v>507.485347290039</v>
       </c>
     </row>
     <row r="129">
@@ -5937,16 +5937,16 @@
         <v>-0.005698029805506488</v>
       </c>
       <c r="K129" t="n">
-        <v>-0.004643842291165656</v>
+        <v>-0.004643842291165878</v>
       </c>
       <c r="L129" t="n">
         <v>46510860</v>
       </c>
       <c r="M129" t="n">
-        <v>483.3411865234375</v>
+        <v>483.3411804199219</v>
       </c>
       <c r="N129" t="n">
-        <v>507.0322283935547</v>
+        <v>507.0322241210937</v>
       </c>
     </row>
     <row r="130">
@@ -5981,16 +5981,16 @@
         <v>-0.02632777598752578</v>
       </c>
       <c r="K130" t="n">
-        <v>-0.03084935623912821</v>
+        <v>-0.03084935623912843</v>
       </c>
       <c r="L130" t="n">
         <v>46446350</v>
       </c>
       <c r="M130" t="n">
-        <v>481.4219039916992</v>
+        <v>481.4218978881836</v>
       </c>
       <c r="N130" t="n">
-        <v>506.0945581054688</v>
+        <v>506.0945538330078</v>
       </c>
     </row>
     <row r="131">
@@ -6025,16 +6025,16 @@
         <v>-4.259284081531423e-05</v>
       </c>
       <c r="K131" t="n">
-        <v>-0.03089063511822399</v>
+        <v>-0.03089063511822421</v>
       </c>
       <c r="L131" t="n">
         <v>46867005</v>
       </c>
       <c r="M131" t="n">
-        <v>480.055532836914</v>
+        <v>480.0555282592774</v>
       </c>
       <c r="N131" t="n">
-        <v>505.2286163330078</v>
+        <v>505.2286114501953</v>
       </c>
     </row>
     <row r="132">
@@ -6069,16 +6069,16 @@
         <v>0.008061022159526754</v>
       </c>
       <c r="K132" t="n">
-        <v>-0.02307862305290709</v>
+        <v>-0.02307862305290731</v>
       </c>
       <c r="L132" t="n">
         <v>45531045</v>
       </c>
       <c r="M132" t="n">
-        <v>478.9524475097656</v>
+        <v>478.9524429321289</v>
       </c>
       <c r="N132" t="n">
-        <v>504.2655535888672</v>
+        <v>504.2655499267578</v>
       </c>
     </row>
     <row r="133">
@@ -6113,16 +6113,16 @@
         <v>0.00729843170847011</v>
       </c>
       <c r="K133" t="n">
-        <v>-0.0159486290987142</v>
+        <v>-0.01594862909871442</v>
       </c>
       <c r="L133" t="n">
         <v>45709585</v>
       </c>
       <c r="M133" t="n">
-        <v>477.6996826171875</v>
+        <v>477.6996795654297</v>
       </c>
       <c r="N133" t="n">
-        <v>503.3103625488282</v>
+        <v>503.3103601074219</v>
       </c>
     </row>
     <row r="134">
@@ -6157,16 +6157,16 @@
         <v>-0.05353353804503436</v>
       </c>
       <c r="K134" t="n">
-        <v>-0.06862838060112642</v>
+        <v>-0.06862838060112664</v>
       </c>
       <c r="L134" t="n">
         <v>46353685</v>
       </c>
       <c r="M134" t="n">
-        <v>475.8632232666016</v>
+        <v>475.8632202148438</v>
       </c>
       <c r="N134" t="n">
-        <v>501.7128393554688</v>
+        <v>501.7128369140625</v>
       </c>
     </row>
     <row r="135">
@@ -6201,16 +6201,16 @@
         <v>-0.06210886967050777</v>
       </c>
       <c r="K135" t="n">
-        <v>-0.1264748191251808</v>
+        <v>-0.126474819125181</v>
       </c>
       <c r="L135" t="n">
         <v>49472370</v>
       </c>
       <c r="M135" t="n">
-        <v>472.4516281127929</v>
+        <v>472.4516250610351</v>
       </c>
       <c r="N135" t="n">
-        <v>499.5342761230469</v>
+        <v>499.5342749023437</v>
       </c>
     </row>
     <row r="136">
@@ -6245,16 +6245,16 @@
         <v>0.002413215217229814</v>
       </c>
       <c r="K136" t="n">
-        <v>-0.1243668148660603</v>
+        <v>-0.1243668148660605</v>
       </c>
       <c r="L136" t="n">
         <v>53716820</v>
       </c>
       <c r="M136" t="n">
-        <v>470.0403289794922</v>
+        <v>470.0403259277344</v>
       </c>
       <c r="N136" t="n">
-        <v>497.4360406494141</v>
+        <v>497.436039428711</v>
       </c>
     </row>
     <row r="137">
@@ -6289,13 +6289,13 @@
         <v>-0.01800850876067661</v>
       </c>
       <c r="K137" t="n">
-        <v>-0.140135662751684</v>
+        <v>-0.1401356627516842</v>
       </c>
       <c r="L137" t="n">
         <v>55341185</v>
       </c>
       <c r="M137" t="n">
-        <v>467.3046859741211</v>
+        <v>467.3046829223633</v>
       </c>
       <c r="N137" t="n">
         <v>495.4927899169922</v>
@@ -6333,16 +6333,16 @@
         <v>0.1200308181135814</v>
       </c>
       <c r="K138" t="n">
-        <v>-0.03692544288507615</v>
+        <v>-0.03692544288507638</v>
       </c>
       <c r="L138" t="n">
         <v>60136475</v>
       </c>
       <c r="M138" t="n">
-        <v>466.7953552246094</v>
+        <v>466.7953521728516</v>
       </c>
       <c r="N138" t="n">
-        <v>494.3946380615234</v>
+        <v>494.3946368408203</v>
       </c>
     </row>
     <row r="139">
@@ -6377,16 +6377,16 @@
         <v>-0.04253219014832599</v>
       </c>
       <c r="K139" t="n">
-        <v>-0.07788711307530294</v>
+        <v>-0.07788711307530316</v>
       </c>
       <c r="L139" t="n">
         <v>63227515</v>
       </c>
       <c r="M139" t="n">
-        <v>465.7246688842773</v>
+        <v>465.7246673583984</v>
       </c>
       <c r="N139" t="n">
-        <v>492.9205145263672</v>
+        <v>492.9205120849609</v>
       </c>
     </row>
     <row r="140">
@@ -6421,16 +6421,16 @@
         <v>0.01842310960207749</v>
       </c>
       <c r="K140" t="n">
-        <v>-0.06089892629400118</v>
+        <v>-0.0608989262940014</v>
       </c>
       <c r="L140" t="n">
         <v>63673555</v>
       </c>
       <c r="M140" t="n">
-        <v>464.500178527832</v>
+        <v>464.5001770019531</v>
       </c>
       <c r="N140" t="n">
-        <v>491.5661846923828</v>
+        <v>491.5661822509766</v>
       </c>
     </row>
     <row r="141">
@@ -6465,16 +6465,16 @@
         <v>0.006778203393759785</v>
       </c>
       <c r="K141" t="n">
-        <v>-0.05453350820912373</v>
+        <v>-0.05453350820912395</v>
       </c>
       <c r="L141" t="n">
         <v>63783395</v>
       </c>
       <c r="M141" t="n">
-        <v>463.2744247436523</v>
+        <v>463.2744232177735</v>
       </c>
       <c r="N141" t="n">
-        <v>490.2884576416016</v>
+        <v>490.2884552001953</v>
       </c>
     </row>
     <row r="142">
@@ -6509,16 +6509,16 @@
         <v>0.00111469556816246</v>
       </c>
       <c r="K142" t="n">
-        <v>-0.05347960090087833</v>
+        <v>-0.05347960090087855</v>
       </c>
       <c r="L142" t="n">
         <v>63599990</v>
       </c>
       <c r="M142" t="n">
-        <v>462.4840591430664</v>
+        <v>462.4840576171875</v>
       </c>
       <c r="N142" t="n">
-        <v>489.1041912841797</v>
+        <v>489.1041900634766</v>
       </c>
     </row>
     <row r="143">
@@ -6553,16 +6553,16 @@
         <v>-0.03015349668895584</v>
       </c>
       <c r="K143" t="n">
-        <v>-0.08202050062114286</v>
+        <v>-0.08202050062114308</v>
       </c>
       <c r="L143" t="n">
         <v>64027505</v>
       </c>
       <c r="M143" t="n">
-        <v>460.6884628295899</v>
+        <v>460.688459777832</v>
       </c>
       <c r="N143" t="n">
-        <v>487.5176330566406</v>
+        <v>487.5176318359375</v>
       </c>
     </row>
     <row r="144">
@@ -6597,16 +6597,16 @@
         <v>-0.0001800750007213692</v>
       </c>
       <c r="K144" t="n">
-        <v>-0.08218580578015566</v>
+        <v>-0.08218580578015589</v>
       </c>
       <c r="L144" t="n">
         <v>64430330</v>
       </c>
       <c r="M144" t="n">
-        <v>458.970068359375</v>
+        <v>458.9700668334961</v>
       </c>
       <c r="N144" t="n">
-        <v>485.8820581054687</v>
+        <v>485.8820568847656</v>
       </c>
     </row>
     <row r="145">
@@ -6641,7 +6641,7 @@
         <v>-0.02474676137218312</v>
       </c>
       <c r="K145" t="n">
-        <v>-0.1048987346285167</v>
+        <v>-0.104898734628517</v>
       </c>
       <c r="L145" t="n">
         <v>64526050</v>
@@ -6650,7 +6650,7 @@
         <v>456.6247222900391</v>
       </c>
       <c r="N145" t="n">
-        <v>483.9723895263672</v>
+        <v>483.9723883056641</v>
       </c>
     </row>
     <row r="146">
@@ -6685,7 +6685,7 @@
         <v>0.02625211593572829</v>
       </c>
       <c r="K146" t="n">
-        <v>-0.08140043243576744</v>
+        <v>-0.08140043243576767</v>
       </c>
       <c r="L146" t="n">
         <v>65412910</v>
@@ -6694,7 +6694,7 @@
         <v>454.3209838867188</v>
       </c>
       <c r="N146" t="n">
-        <v>482.4227032470703</v>
+        <v>482.4227008056641</v>
       </c>
     </row>
     <row r="147">
@@ -6729,7 +6729,7 @@
         <v>0.02267812569848093</v>
       </c>
       <c r="K147" t="n">
-        <v>-0.06056831597597556</v>
+        <v>-0.06056831597597578</v>
       </c>
       <c r="L147" t="n">
         <v>66901205</v>
@@ -6738,7 +6738,7 @@
         <v>452.3804153442383</v>
       </c>
       <c r="N147" t="n">
-        <v>480.9480328369141</v>
+        <v>480.9480303955078</v>
       </c>
     </row>
     <row r="148">
@@ -6773,7 +6773,7 @@
         <v>0.0281371130127519</v>
       </c>
       <c r="K148" t="n">
-        <v>-0.03413542051483176</v>
+        <v>-0.03413542051483198</v>
       </c>
       <c r="L148" t="n">
         <v>67467655</v>
@@ -6782,7 +6782,7 @@
         <v>451.5308547973633</v>
       </c>
       <c r="N148" t="n">
-        <v>479.7536846923828</v>
+        <v>479.7536822509766</v>
       </c>
     </row>
     <row r="149">
@@ -6817,7 +6817,7 @@
         <v>0.01114794251438811</v>
       </c>
       <c r="K149" t="n">
-        <v>-0.02336801770604746</v>
+        <v>-0.02336801770604768</v>
       </c>
       <c r="L149" t="n">
         <v>67729020</v>
@@ -6826,7 +6826,7 @@
         <v>451.0788864135742</v>
       </c>
       <c r="N149" t="n">
-        <v>478.6571221923828</v>
+        <v>478.6571197509766</v>
       </c>
     </row>
     <row r="150">
@@ -6861,7 +6861,7 @@
         <v>-0.0003174199608481088</v>
       </c>
       <c r="K150" t="n">
-        <v>-0.02367802019163023</v>
+        <v>-0.02367802019163046</v>
       </c>
       <c r="L150" t="n">
         <v>67088370</v>
@@ -6870,7 +6870,7 @@
         <v>451.2519897460937</v>
       </c>
       <c r="N150" t="n">
-        <v>477.4061383056641</v>
+        <v>477.4061358642578</v>
       </c>
     </row>
     <row r="151">
@@ -6905,7 +6905,7 @@
         <v>0.006604483361886793</v>
       </c>
       <c r="K151" t="n">
-        <v>-0.0172299179201415</v>
+        <v>-0.01722991792014172</v>
       </c>
       <c r="L151" t="n">
         <v>65969010</v>
@@ -6914,7 +6914,7 @@
         <v>451.5817352294922</v>
       </c>
       <c r="N151" t="n">
-        <v>476.1725823974609</v>
+        <v>476.1725787353516</v>
       </c>
     </row>
     <row r="152">
@@ -6949,7 +6949,7 @@
         <v>-0.0001262007077531546</v>
       </c>
       <c r="K152" t="n">
-        <v>-0.01735394420005865</v>
+        <v>-0.01735394420005887</v>
       </c>
       <c r="L152" t="n">
         <v>66251730</v>
@@ -6958,7 +6958,7 @@
         <v>451.7199188232422</v>
       </c>
       <c r="N152" t="n">
-        <v>474.913519897461</v>
+        <v>474.9135174560547</v>
       </c>
     </row>
     <row r="153">
@@ -6993,7 +6993,7 @@
         <v>0.01306071998035097</v>
       </c>
       <c r="K153" t="n">
-        <v>-0.004519879225459267</v>
+        <v>-0.004519879225459489</v>
       </c>
       <c r="L153" t="n">
         <v>65922830</v>
@@ -7002,7 +7002,7 @@
         <v>451.9957885742188</v>
       </c>
       <c r="N153" t="n">
-        <v>473.7753857421875</v>
+        <v>473.7753820800781</v>
       </c>
     </row>
     <row r="154">
@@ -7037,7 +7037,7 @@
         <v>0.01484392001461554</v>
       </c>
       <c r="K154" t="n">
-        <v>0.01025694806345778</v>
+        <v>0.01025694806345756</v>
       </c>
       <c r="L154" t="n">
         <v>64360920</v>
@@ -7046,7 +7046,7 @@
         <v>453.8999404907227</v>
       </c>
       <c r="N154" t="n">
-        <v>472.8255535888672</v>
+        <v>472.8255511474609</v>
       </c>
     </row>
     <row r="155">
@@ -7081,7 +7081,7 @@
         <v>-0.005932552575683703</v>
       </c>
       <c r="K155" t="n">
-        <v>0.004263545604121566</v>
+        <v>0.004263545604121344</v>
       </c>
       <c r="L155" t="n">
         <v>59921975</v>
@@ -7090,7 +7090,7 @@
         <v>457.0557327270508</v>
       </c>
       <c r="N155" t="n">
-        <v>472.0400152587891</v>
+        <v>472.0400128173828</v>
       </c>
     </row>
     <row r="156">
@@ -7125,7 +7125,7 @@
         <v>-0.009301695244706365</v>
       </c>
       <c r="K156" t="n">
-        <v>-0.005077807842456261</v>
+        <v>-0.005077807842456483</v>
       </c>
       <c r="L156" t="n">
         <v>53483440</v>
@@ -7134,7 +7134,7 @@
         <v>459.9351577758789</v>
       </c>
       <c r="N156" t="n">
-        <v>471.2880151367187</v>
+        <v>471.2880126953125</v>
       </c>
     </row>
     <row r="157">
@@ -7169,7 +7169,7 @@
         <v>0.003925941207711947</v>
       </c>
       <c r="K157" t="n">
-        <v>-0.001171801809797812</v>
+        <v>-0.001171801809798034</v>
       </c>
       <c r="L157" t="n">
         <v>50321350</v>
@@ -7178,7 +7178,7 @@
         <v>463.2894989013672</v>
       </c>
       <c r="N157" t="n">
-        <v>470.7042358398438</v>
+        <v>470.704232788086</v>
       </c>
     </row>
     <row r="158">
@@ -7213,7 +7213,7 @@
         <v>0.01032486490622464</v>
       </c>
       <c r="K158" t="n">
-        <v>0.009140964401043838</v>
+        <v>0.009140964401043616</v>
       </c>
       <c r="L158" t="n">
         <v>45156385</v>
@@ -7222,7 +7222,7 @@
         <v>464.4014602661133</v>
       </c>
       <c r="N158" t="n">
-        <v>470.1953228759766</v>
+        <v>470.1953198242188</v>
       </c>
     </row>
     <row r="159">
@@ -7257,7 +7257,7 @@
         <v>-0.0006553564742698414</v>
       </c>
       <c r="K159" t="n">
-        <v>0.008479617336572653</v>
+        <v>0.008479617336572431</v>
       </c>
       <c r="L159" t="n">
         <v>41125550</v>
@@ -7266,7 +7266,7 @@
         <v>466.4861999511719</v>
       </c>
       <c r="N159" t="n">
-        <v>469.9647479248047</v>
+        <v>469.9647454833984</v>
       </c>
     </row>
     <row r="160">
@@ -7301,7 +7301,7 @@
         <v>0.04074017218557402</v>
       </c>
       <c r="K160" t="n">
-        <v>0.04956525059250638</v>
+        <v>0.04956525059250616</v>
       </c>
       <c r="L160" t="n">
         <v>40755890</v>
@@ -7310,7 +7310,7 @@
         <v>469.1526092529297</v>
       </c>
       <c r="N160" t="n">
-        <v>469.973461303711</v>
+        <v>469.9734588623047</v>
       </c>
     </row>
     <row r="161">
@@ -7345,7 +7345,7 @@
         <v>0.01524069414584273</v>
       </c>
       <c r="K161" t="n">
-        <v>0.06556135356289161</v>
+        <v>0.06556135356289139</v>
       </c>
       <c r="L161" t="n">
         <v>41222310</v>
@@ -7354,7 +7354,7 @@
         <v>472.0514862060547</v>
       </c>
       <c r="N161" t="n">
-        <v>470.3581848144531</v>
+        <v>470.3581829833984</v>
       </c>
     </row>
     <row r="162">
@@ -7389,7 +7389,7 @@
         <v>0.005993228193183819</v>
       </c>
       <c r="K162" t="n">
-        <v>0.07194750590863186</v>
+        <v>0.07194750590863164</v>
       </c>
       <c r="L162" t="n">
         <v>41802825</v>
@@ -7398,7 +7398,7 @@
         <v>475.0790740966797</v>
       </c>
       <c r="N162" t="n">
-        <v>470.8344555664062</v>
+        <v>470.8344537353516</v>
       </c>
     </row>
     <row r="163">
@@ -7433,7 +7433,7 @@
         <v>0.001098872455665534</v>
       </c>
       <c r="K163" t="n">
-        <v>0.07312543949679418</v>
+        <v>0.07312543949679395</v>
       </c>
       <c r="L163" t="n">
         <v>41861460</v>
@@ -7442,7 +7442,7 @@
         <v>478.8240219116211</v>
       </c>
       <c r="N163" t="n">
-        <v>471.1933856201172</v>
+        <v>471.1933843994141</v>
       </c>
     </row>
     <row r="164">
@@ -7477,7 +7477,7 @@
         <v>0.004352493541476488</v>
       </c>
       <c r="K164" t="n">
-        <v>0.07779621104139811</v>
+        <v>0.07779621104139789</v>
       </c>
       <c r="L164" t="n">
         <v>42039340</v>
@@ -7486,7 +7486,7 @@
         <v>482.6857040405274</v>
       </c>
       <c r="N164" t="n">
-        <v>471.8725738525391</v>
+        <v>471.872572631836</v>
       </c>
     </row>
     <row r="165">
@@ -7521,7 +7521,7 @@
         <v>0.0009588323781763997</v>
       </c>
       <c r="K165" t="n">
-        <v>0.07882963694562051</v>
+        <v>0.07882963694562029</v>
       </c>
       <c r="L165" t="n">
         <v>42458685</v>
@@ -7530,7 +7530,7 @@
         <v>487.1205810546875</v>
       </c>
       <c r="N165" t="n">
-        <v>472.4902099609375</v>
+        <v>472.4902087402344</v>
       </c>
     </row>
     <row r="166">
@@ -7565,7 +7565,7 @@
         <v>-0.003333245049938371</v>
       </c>
       <c r="K166" t="n">
-        <v>0.07523363339854461</v>
+        <v>0.07523363339854439</v>
       </c>
       <c r="L166" t="n">
         <v>41969345</v>
@@ -7574,7 +7574,7 @@
         <v>490.9014495849609</v>
       </c>
       <c r="N166" t="n">
-        <v>473.452890625</v>
+        <v>473.4528894042969</v>
       </c>
     </row>
     <row r="167">
@@ -7609,7 +7609,7 @@
         <v>-0.01389675546989821</v>
       </c>
       <c r="K167" t="n">
-        <v>0.06029137452219491</v>
+        <v>0.06029137452219469</v>
       </c>
       <c r="L167" t="n">
         <v>42743930</v>
@@ -7618,7 +7618,7 @@
         <v>493.8187881469727</v>
       </c>
       <c r="N167" t="n">
-        <v>474.2938146972656</v>
+        <v>474.2938134765625</v>
       </c>
     </row>
     <row r="168">
@@ -7653,7 +7653,7 @@
         <v>0.001871282229865878</v>
       </c>
       <c r="K168" t="n">
-        <v>0.06227547892981833</v>
+        <v>0.06227547892981811</v>
       </c>
       <c r="L168" t="n">
         <v>43226485</v>
@@ -7662,7 +7662,7 @@
         <v>496.1459762573242</v>
       </c>
       <c r="N168" t="n">
-        <v>475.0478961181641</v>
+        <v>475.0478948974609</v>
       </c>
     </row>
     <row r="169">
@@ -7697,7 +7697,7 @@
         <v>-0.009260800965081861</v>
       </c>
       <c r="K169" t="n">
-        <v>0.05243795714936228</v>
+        <v>0.05243795714936206</v>
       </c>
       <c r="L169" t="n">
         <v>44210035</v>
@@ -7706,7 +7706,7 @@
         <v>497.9757980346679</v>
       </c>
       <c r="N169" t="n">
-        <v>475.8779479980469</v>
+        <v>475.8779473876953</v>
       </c>
     </row>
     <row r="170">
@@ -7741,7 +7741,7 @@
         <v>0.02352524116516563</v>
       </c>
       <c r="K170" t="n">
-        <v>0.0771968139026753</v>
+        <v>0.07719681390267508</v>
       </c>
       <c r="L170" t="n">
         <v>44893810</v>
@@ -7750,7 +7750,7 @@
         <v>500.4107376098633</v>
       </c>
       <c r="N170" t="n">
-        <v>476.7215063476563</v>
+        <v>476.7215057373047</v>
       </c>
     </row>
     <row r="171">
@@ -7785,7 +7785,7 @@
         <v>-0.004431932495568502</v>
       </c>
       <c r="K171" t="n">
-        <v>0.07242275033901713</v>
+        <v>0.07242275033901691</v>
       </c>
       <c r="L171" t="n">
         <v>45695015</v>
@@ -7794,7 +7794,7 @@
         <v>502.5747940063476</v>
       </c>
       <c r="N171" t="n">
-        <v>477.4570043945312</v>
+        <v>477.4570037841797</v>
       </c>
     </row>
     <row r="172">
@@ -7829,7 +7829,7 @@
         <v>0.001965705662868578</v>
       </c>
       <c r="K172" t="n">
-        <v>0.07453081781234761</v>
+        <v>0.07453081781234738</v>
       </c>
       <c r="L172" t="n">
         <v>46280150</v>
@@ -7838,7 +7838,7 @@
         <v>504.7927291870117</v>
       </c>
       <c r="N172" t="n">
-        <v>478.3768359375</v>
+        <v>478.3768353271485</v>
       </c>
     </row>
     <row r="173">
@@ -7873,7 +7873,7 @@
         <v>-0.001577103710923566</v>
       </c>
       <c r="K173" t="n">
-        <v>0.07283617127207398</v>
+        <v>0.07283617127207376</v>
       </c>
       <c r="L173" t="n">
         <v>47497465</v>
@@ -7882,7 +7882,7 @@
         <v>506.6599670410156</v>
       </c>
       <c r="N173" t="n">
-        <v>479.1537835693359</v>
+        <v>479.1537823486328</v>
       </c>
     </row>
     <row r="174">
@@ -7917,7 +7917,7 @@
         <v>0.007898210169555497</v>
       </c>
       <c r="K174" t="n">
-        <v>0.08130965683028202</v>
+        <v>0.0813096568302818</v>
       </c>
       <c r="L174" t="n">
         <v>47774700</v>
@@ -7926,7 +7926,7 @@
         <v>508.3750534057617</v>
       </c>
       <c r="N174" t="n">
-        <v>480.0450219726562</v>
+        <v>480.0450213623047</v>
       </c>
     </row>
     <row r="175">
@@ -7961,7 +7961,7 @@
         <v>0.007817025230037355</v>
       </c>
       <c r="K175" t="n">
-        <v>0.08976228169920741</v>
+        <v>0.08976228169920719</v>
       </c>
       <c r="L175" t="n">
         <v>48562740</v>
@@ -8005,7 +8005,7 @@
         <v>0.002787832705442472</v>
       </c>
       <c r="K176" t="n">
-        <v>0.0928003566292861</v>
+        <v>0.09280035662928587</v>
       </c>
       <c r="L176" t="n">
         <v>48991390</v>
@@ -8049,7 +8049,7 @@
         <v>-0.007526931107292967</v>
       </c>
       <c r="K177" t="n">
-        <v>0.08457492363091235</v>
+        <v>0.08457492363091212</v>
       </c>
       <c r="L177" t="n">
         <v>50142635</v>
@@ -8093,7 +8093,7 @@
         <v>0.009775290027975503</v>
       </c>
       <c r="K178" t="n">
-        <v>0.09517695806647386</v>
+        <v>0.09517695806647364</v>
       </c>
       <c r="L178" t="n">
         <v>50287105</v>
@@ -8137,7 +8137,7 @@
         <v>0.001471989316619959</v>
       </c>
       <c r="K179" t="n">
-        <v>0.09678904684855616</v>
+        <v>0.09678904684855594</v>
       </c>
       <c r="L179" t="n">
         <v>50583170</v>
@@ -8181,7 +8181,7 @@
         <v>0.006613927691166754</v>
       </c>
       <c r="K180" t="n">
-        <v>0.1040431302968763</v>
+        <v>0.1040431302968761</v>
       </c>
       <c r="L180" t="n">
         <v>50361880</v>
@@ -8225,7 +8225,7 @@
         <v>-0.003369575112896483</v>
       </c>
       <c r="K181" t="n">
-        <v>0.1003229740414635</v>
+        <v>0.1003229740414633</v>
       </c>
       <c r="L181" t="n">
         <v>50383450</v>
@@ -8269,7 +8269,7 @@
         <v>0.002347890931193808</v>
       </c>
       <c r="K182" t="n">
-        <v>0.1029064123735997</v>
+        <v>0.1029064123735994</v>
       </c>
       <c r="L182" t="n">
         <v>49737970</v>
@@ -8313,7 +8313,7 @@
         <v>-0.01255473107092464</v>
       </c>
       <c r="K183" t="n">
-        <v>0.08905971896985077</v>
+        <v>0.08905971896985054</v>
       </c>
       <c r="L183" t="n">
         <v>50021025</v>
@@ -8357,7 +8357,7 @@
         <v>0.01390984627193603</v>
       </c>
       <c r="K184" t="n">
-        <v>0.1042083722416793</v>
+        <v>0.1042083722416791</v>
       </c>
       <c r="L184" t="n">
         <v>49482400</v>
@@ -8401,7 +8401,7 @@
         <v>-0.009751241775974973</v>
       </c>
       <c r="K185" t="n">
-        <v>0.09344096943289504</v>
+        <v>0.09344096943289482</v>
       </c>
       <c r="L185" t="n">
         <v>48964635</v>
@@ -8445,7 +8445,7 @@
         <v>-0.0001701990681600707</v>
       </c>
       <c r="K186" t="n">
-        <v>0.09325486679880957</v>
+        <v>0.09325486679880934</v>
       </c>
       <c r="L186" t="n">
         <v>49037930</v>
@@ -8489,7 +8489,7 @@
         <v>-0.004083160098547256</v>
       </c>
       <c r="K187" t="n">
-        <v>0.08879093214915401</v>
+        <v>0.08879093214915379</v>
       </c>
       <c r="L187" t="n">
         <v>48555465</v>
@@ -8533,7 +8533,7 @@
         <v>0.01028249694957539</v>
       </c>
       <c r="K188" t="n">
-        <v>0.0999864215877031</v>
+        <v>0.09998642158770288</v>
       </c>
       <c r="L188" t="n">
         <v>48308410</v>
@@ -8577,7 +8577,7 @@
         <v>0.01529193601999346</v>
       </c>
       <c r="K189" t="n">
-        <v>0.1168073435694839</v>
+        <v>0.1168073435694836</v>
       </c>
       <c r="L189" t="n">
         <v>47662105</v>
@@ -8621,7 +8621,7 @@
         <v>0.002556513460383547</v>
       </c>
       <c r="K190" t="n">
-        <v>0.1196624765759744</v>
+        <v>0.1196624765759742</v>
       </c>
       <c r="L190" t="n">
         <v>47541000</v>
@@ -8665,7 +8665,7 @@
         <v>0.009350280450826087</v>
       </c>
       <c r="K191" t="n">
-        <v>0.1301316347422263</v>
+        <v>0.1301316347422261</v>
       </c>
       <c r="L191" t="n">
         <v>47399710</v>
@@ -8709,7 +8709,7 @@
         <v>0.003423685563276546</v>
       </c>
       <c r="K192" t="n">
-        <v>0.1340008501046954</v>
+        <v>0.1340008501046952</v>
       </c>
       <c r="L192" t="n">
         <v>47352900</v>
@@ -8753,7 +8753,7 @@
         <v>0.006476943163778559</v>
       </c>
       <c r="K193" t="n">
-        <v>0.1413457091585002</v>
+        <v>0.1413457091585</v>
       </c>
       <c r="L193" t="n">
         <v>46247195</v>
@@ -8797,7 +8797,7 @@
         <v>-0.008429368412703919</v>
       </c>
       <c r="K194" t="n">
-        <v>0.1317248856897444</v>
+        <v>0.1317248856897442</v>
       </c>
       <c r="L194" t="n">
         <v>46817390</v>
@@ -8841,7 +8841,7 @@
         <v>0.006965307629207107</v>
       </c>
       <c r="K195" t="n">
-        <v>0.1396076976702028</v>
+        <v>0.1396076976702025</v>
       </c>
       <c r="L195" t="n">
         <v>46440790</v>
@@ -8885,7 +8885,7 @@
         <v>0.009840293672287004</v>
       </c>
       <c r="K196" t="n">
-        <v>0.1508217720864764</v>
+        <v>0.1508217720864762</v>
       </c>
       <c r="L196" t="n">
         <v>45695000</v>
@@ -8929,7 +8929,7 @@
         <v>-0.007532939099742952</v>
       </c>
       <c r="K197" t="n">
-        <v>0.1421527017626907</v>
+        <v>0.1421527017626905</v>
       </c>
       <c r="L197" t="n">
         <v>44910905</v>
@@ -8973,7 +8973,7 @@
         <v>0.000561546081480957</v>
       </c>
       <c r="K198" t="n">
-        <v>0.1427940731368185</v>
+        <v>0.1427940731368182</v>
       </c>
       <c r="L198" t="n">
         <v>44595220</v>
@@ -9017,7 +9017,7 @@
         <v>0.007078944049491831</v>
       </c>
       <c r="K199" t="n">
-        <v>0.150883848440645</v>
+        <v>0.1508838484406447</v>
       </c>
       <c r="L199" t="n">
         <v>45063060</v>
@@ -9061,7 +9061,7 @@
         <v>-0.001438199758827974</v>
       </c>
       <c r="K200" t="n">
-        <v>0.1492286475673785</v>
+        <v>0.1492286475673783</v>
       </c>
       <c r="L200" t="n">
         <v>44765365</v>
@@ -9105,7 +9105,7 @@
         <v>-0.002250396179078962</v>
       </c>
       <c r="K201" t="n">
-        <v>0.1466424278100049</v>
+        <v>0.1466424278100047</v>
       </c>
       <c r="L201" t="n">
         <v>44061245</v>
@@ -9149,7 +9149,7 @@
         <v>0.003626881705373064</v>
       </c>
       <c r="K202" t="n">
-        <v>0.1508011642540337</v>
+        <v>0.1508011642540334</v>
       </c>
       <c r="L202" t="n">
         <v>44178665</v>
@@ -9193,7 +9193,7 @@
         <v>0.0009167918809922515</v>
       </c>
       <c r="K203" t="n">
-        <v>0.1518562094180582</v>
+        <v>0.151856209418058</v>
       </c>
       <c r="L203" t="n">
         <v>43551830</v>
@@ -9237,7 +9237,7 @@
         <v>0.001023846805824125</v>
       </c>
       <c r="K204" t="n">
-        <v>0.1530355337188396</v>
+        <v>0.1530355337188394</v>
       </c>
       <c r="L204" t="n">
         <v>44286460</v>
@@ -9281,7 +9281,7 @@
         <v>0.008092814240598711</v>
       </c>
       <c r="K205" t="n">
-        <v>0.1623668361060358</v>
+        <v>0.1623668361060355</v>
       </c>
       <c r="L205" t="n">
         <v>44198605</v>
@@ -9325,7 +9325,7 @@
         <v>-0.0009611836056468981</v>
       </c>
       <c r="K206" t="n">
-        <v>0.1612495881594229</v>
+        <v>0.1612495881594227</v>
       </c>
       <c r="L206" t="n">
         <v>44523665</v>
@@ -9369,7 +9369,7 @@
         <v>0.005184737435977471</v>
       </c>
       <c r="K207" t="n">
-        <v>0.1672703623716665</v>
+        <v>0.1672703623716663</v>
       </c>
       <c r="L207" t="n">
         <v>43421250</v>
@@ -9413,7 +9413,7 @@
         <v>-0.005175757620394905</v>
       </c>
       <c r="K208" t="n">
-        <v>0.1612288538985602</v>
+        <v>0.16122885389856</v>
       </c>
       <c r="L208" t="n">
         <v>43051475</v>
@@ -9457,7 +9457,7 @@
         <v>0.004561304719325365</v>
       </c>
       <c r="K209" t="n">
-        <v>0.1665255725500645</v>
+        <v>0.1665255725500643</v>
       </c>
       <c r="L209" t="n">
         <v>42790140</v>
@@ -9501,7 +9501,7 @@
         <v>0.002128372809240719</v>
       </c>
       <c r="K210" t="n">
-        <v>0.1690083738599639</v>
+        <v>0.1690083738599637</v>
       </c>
       <c r="L210" t="n">
         <v>42663705</v>
@@ -9545,7 +9545,7 @@
         <v>0.002406989527281134</v>
       </c>
       <c r="K211" t="n">
-        <v>0.1718221647731488</v>
+        <v>0.1718221647731486</v>
       </c>
       <c r="L211" t="n">
         <v>42004675</v>
@@ -9589,7 +9589,7 @@
         <v>0.003125154755363235</v>
       </c>
       <c r="K212" t="n">
-        <v>0.1754842903838296</v>
+        <v>0.1754842903838294</v>
       </c>
       <c r="L212" t="n">
         <v>40700755</v>
@@ -9633,7 +9633,7 @@
         <v>-0.001548889840386147</v>
       </c>
       <c r="K213" t="n">
-        <v>0.1736635947089207</v>
+        <v>0.1736635947089205</v>
       </c>
       <c r="L213" t="n">
         <v>40696485</v>
@@ -9677,7 +9677,7 @@
         <v>0.001339835957888003</v>
       </c>
       <c r="K214" t="n">
-        <v>0.1752361113955758</v>
+        <v>0.1752361113955756</v>
       </c>
       <c r="L214" t="n">
         <v>40059840</v>
@@ -9721,7 +9721,7 @@
         <v>-0.005299137318216296</v>
       </c>
       <c r="K215" t="n">
-        <v>0.1690083738599641</v>
+        <v>0.1690083738599639</v>
       </c>
       <c r="L215" t="n">
         <v>41463605</v>
@@ -9765,7 +9765,7 @@
         <v>-0.01969879104365424</v>
       </c>
       <c r="K216" t="n">
-        <v>0.1459803221750147</v>
+        <v>0.1459803221750144</v>
       </c>
       <c r="L216" t="n">
         <v>43611470</v>
@@ -9809,7 +9809,7 @@
         <v>0.01845158491667598</v>
       </c>
       <c r="K217" t="n">
-        <v>0.1671254754024667</v>
+        <v>0.1671254754024665</v>
       </c>
       <c r="L217" t="n">
         <v>43727495</v>
@@ -9853,7 +9853,7 @@
         <v>-0.006789462007957048</v>
       </c>
       <c r="K218" t="n">
-        <v>0.1592013213287029</v>
+        <v>0.1592013213287027</v>
       </c>
       <c r="L218" t="n">
         <v>44353160</v>
@@ -9897,7 +9897,7 @@
         <v>0.0125831689631235</v>
       </c>
       <c r="K219" t="n">
-        <v>0.173787747417258</v>
+        <v>0.1737877474172578</v>
       </c>
       <c r="L219" t="n">
         <v>44292070</v>
@@ -9941,7 +9941,7 @@
         <v>0.003384348993473729</v>
       </c>
       <c r="K220" t="n">
-        <v>0.1777602547987813</v>
+        <v>0.1777602547987811</v>
       </c>
       <c r="L220" t="n">
         <v>44779675</v>
@@ -9985,7 +9985,7 @@
         <v>0.009328194585679572</v>
       </c>
       <c r="K221" t="n">
-        <v>0.1887466316308239</v>
+        <v>0.1887466316308237</v>
       </c>
       <c r="L221" t="n">
         <v>44561520</v>
@@ -10029,7 +10029,7 @@
         <v>-0.002958885414527379</v>
       </c>
       <c r="K222" t="n">
-        <v>0.185229266560923</v>
+        <v>0.1852292665609228</v>
       </c>
       <c r="L222" t="n">
         <v>44394500</v>
@@ -10073,7 +10073,7 @@
         <v>0.01256871415487582</v>
       </c>
       <c r="K223" t="n">
-        <v>0.2001260744203204</v>
+        <v>0.2001260744203202</v>
       </c>
       <c r="L223" t="n">
         <v>44337780</v>
@@ -10117,7 +10117,7 @@
         <v>0.0005000772185803637</v>
       </c>
       <c r="K224" t="n">
-        <v>0.2007262301295623</v>
+        <v>0.200726230129562</v>
       </c>
       <c r="L224" t="n">
         <v>43782510</v>
@@ -10161,7 +10161,7 @@
         <v>-0.0007753798166022507</v>
       </c>
       <c r="K225" t="n">
-        <v>0.1997952112454549</v>
+        <v>0.1997952112454546</v>
       </c>
       <c r="L225" t="n">
         <v>44032570</v>
@@ -10205,7 +10205,7 @@
         <v>-0.004397404107960079</v>
       </c>
       <c r="K226" t="n">
-        <v>0.1945192268548133</v>
+        <v>0.194519226854813</v>
       </c>
       <c r="L226" t="n">
         <v>43982345</v>
@@ -10249,7 +10249,7 @@
         <v>-0.0003984891914702304</v>
       </c>
       <c r="K227" t="n">
-        <v>0.1940432238539083</v>
+        <v>0.194043223853908</v>
       </c>
       <c r="L227" t="n">
         <v>43494135</v>
@@ -10293,7 +10293,7 @@
         <v>-0.01356748073809921</v>
       </c>
       <c r="K228" t="n">
-        <v>0.1778430654138126</v>
+        <v>0.1778430654138123</v>
       </c>
       <c r="L228" t="n">
         <v>44018235</v>
@@ -10337,7 +10337,7 @@
         <v>-0.005937345834455043</v>
       </c>
       <c r="K229" t="n">
-        <v>0.170849803795736</v>
+        <v>0.1708498037957358</v>
       </c>
       <c r="L229" t="n">
         <v>45846525</v>
@@ -10381,7 +10381,7 @@
         <v>-0.004629752606908344</v>
       </c>
       <c r="K230" t="n">
-        <v>0.1654290588643146</v>
+        <v>0.1654290588643144</v>
       </c>
       <c r="L230" t="n">
         <v>46054595</v>
@@ -10425,7 +10425,7 @@
         <v>0.01542737576770215</v>
       </c>
       <c r="K231" t="n">
-        <v>0.1834085708860138</v>
+        <v>0.1834085708860136</v>
       </c>
       <c r="L231" t="n">
         <v>47098160</v>
@@ -10469,7 +10469,7 @@
         <v>-0.002884735059381027</v>
       </c>
       <c r="K232" t="n">
-        <v>0.179994750692007</v>
+        <v>0.1799947506920068</v>
       </c>
       <c r="L232" t="n">
         <v>47225460</v>
@@ -10513,7 +10513,7 @@
         <v>0.004015298764006747</v>
       </c>
       <c r="K233" t="n">
-        <v>0.184732782155995</v>
+        <v>0.1847327821559948</v>
       </c>
       <c r="L233" t="n">
         <v>46657445</v>
@@ -10557,7 +10557,7 @@
         <v>0.001536798594865996</v>
       </c>
       <c r="K234" t="n">
-        <v>0.1865534778309039</v>
+        <v>0.1865534778309037</v>
       </c>
       <c r="L234" t="n">
         <v>46332110</v>
@@ -10601,7 +10601,7 @@
         <v>0.006259975834240761</v>
       </c>
       <c r="K235" t="n">
-        <v>0.1939812739281597</v>
+        <v>0.1939812739281594</v>
       </c>
       <c r="L235" t="n">
         <v>45440825</v>
@@ -10645,7 +10645,7 @@
         <v>-0.01157547635619105</v>
       </c>
       <c r="K236" t="n">
-        <v>0.1801603719220695</v>
+        <v>0.1801603719220692</v>
       </c>
       <c r="L236" t="n">
         <v>44772305</v>
@@ -10689,7 +10689,7 @@
         <v>-0.008380208156460234</v>
       </c>
       <c r="K237" t="n">
-        <v>0.170270382347357</v>
+        <v>0.1702703823473568</v>
       </c>
       <c r="L237" t="n">
         <v>45682655</v>
@@ -10733,7 +10733,7 @@
         <v>0.007867540542546569</v>
       </c>
       <c r="K238" t="n">
-        <v>0.1794775320262163</v>
+        <v>0.1794775320262161</v>
       </c>
       <c r="L238" t="n">
         <v>45960835</v>
@@ -10777,7 +10777,7 @@
         <v>0.009051461152346008</v>
       </c>
       <c r="K239" t="n">
-        <v>0.1901535270874166</v>
+        <v>0.1901535270874164</v>
       </c>
       <c r="L239" t="n">
         <v>46245965</v>
@@ -10821,7 +10821,7 @@
         <v>0.001442903951759389</v>
       </c>
       <c r="K240" t="n">
-        <v>0.1918708043148514</v>
+        <v>0.1918708043148512</v>
       </c>
       <c r="L240" t="n">
         <v>47439940</v>
@@ -10865,7 +10865,7 @@
         <v>0.004877992896753058</v>
       </c>
       <c r="K241" t="n">
-        <v>0.1976847416321466</v>
+        <v>0.1976847416321463</v>
       </c>
       <c r="L241" t="n">
         <v>47995735</v>
@@ -10909,7 +10909,7 @@
         <v>0.00283314318335548</v>
       </c>
       <c r="K242" t="n">
-        <v>0.2010779539937106</v>
+        <v>0.2010779539937104</v>
       </c>
       <c r="L242" t="n">
         <v>48540470</v>
@@ -10953,7 +10953,7 @@
         <v>0.0003272609876376897</v>
       </c>
       <c r="K243" t="n">
-        <v>0.2014710199511645</v>
+        <v>0.2014710199511642</v>
       </c>
       <c r="L243" t="n">
         <v>48898705</v>
@@ -10997,7 +10997,7 @@
         <v>0.005820582853809153</v>
       </c>
       <c r="K244" t="n">
-        <v>0.2084642815692408</v>
+        <v>0.2084642815692406</v>
       </c>
       <c r="L244" t="n">
         <v>49075530</v>
@@ -11041,7 +11041,7 @@
         <v>0.004417122125826234</v>
       </c>
       <c r="K245" t="n">
-        <v>0.213802215885631</v>
+        <v>0.2138022158856308</v>
       </c>
       <c r="L245" t="n">
         <v>49341575</v>
@@ -11085,7 +11085,7 @@
         <v>0.008556973981187044</v>
       </c>
       <c r="K246" t="n">
-        <v>0.2241886898652714</v>
+        <v>0.2241886898652712</v>
       </c>
       <c r="L246" t="n">
         <v>49085580</v>
@@ -11129,7 +11129,7 @@
         <v>-0.0008451015505749337</v>
       </c>
       <c r="K247" t="n">
-        <v>0.2231541261052701</v>
+        <v>0.2231541261052699</v>
       </c>
       <c r="L247" t="n">
         <v>49441135</v>
@@ -11173,7 +11173,7 @@
         <v>-0.001995932267299438</v>
       </c>
       <c r="K248" t="n">
-        <v>0.220712793317096</v>
+        <v>0.2207127933170958</v>
       </c>
       <c r="L248" t="n">
         <v>50222745</v>
@@ -11217,7 +11217,7 @@
         <v>0.009016953990459431</v>
       </c>
       <c r="K249" t="n">
-        <v>0.2317199044100016</v>
+        <v>0.2317199044100013</v>
       </c>
       <c r="L249" t="n">
         <v>49437155</v>
@@ -11261,7 +11261,7 @@
         <v>0.006769359058197866</v>
       </c>
       <c r="K250" t="n">
-        <v>0.2400578587020821</v>
+        <v>0.2400578587020818</v>
       </c>
       <c r="L250" t="n">
         <v>50025115</v>
@@ -11305,7 +11305,7 @@
         <v>0.005920040406268923</v>
       </c>
       <c r="K251" t="n">
-        <v>0.2473990513317097</v>
+        <v>0.2473990513317095</v>
       </c>
       <c r="L251" t="n">
         <v>50307750</v>
@@ -11325,16 +11325,16 @@
         <v>598.2000122070312</v>
       </c>
       <c r="C252" t="n">
-        <v>602.5650024414062</v>
+        <v>602.5700073242188</v>
       </c>
       <c r="D252" t="n">
-        <v>596.989990234375</v>
+        <v>596.97998046875</v>
       </c>
       <c r="E252" t="n">
-        <v>602.3499755859375</v>
+        <v>602.3699951171875</v>
       </c>
       <c r="F252" t="n">
-        <v>62954424</v>
+        <v>64585800</v>
       </c>
       <c r="G252" t="n">
         <v>0</v>
@@ -11349,10 +11349,10 @@
         <v>-0.006642311389766009</v>
       </c>
       <c r="K252" t="n">
-        <v>0.2391134384054658</v>
+        <v>0.2391134384054656</v>
       </c>
       <c r="L252" t="n">
-        <v>51753236.2</v>
+        <v>51834805</v>
       </c>
       <c r="M252" t="n">
         <v>582.3599639892578</v>
@@ -11430,7 +11430,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>62954424</v>
+        <v>64585800</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>45923</v>
